--- a/Documents/数据表设计.xlsx
+++ b/Documents/数据表设计.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="RenHai" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="168">
   <si>
     <t>序号</t>
   </si>
@@ -117,9 +117,6 @@
   <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId</t>
   </si>
   <si>
     <t>deviceId</t>
@@ -339,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chatId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -425,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OperationLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>logDate</t>
   </si>
   <si>
@@ -771,18 +760,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>ChatRecord(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>聊天记录表</t>
+    <t>匹配次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profileId1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profileId2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟身份</t>
     </r>
     <r>
       <rPr>
@@ -791,31 +789,12 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profileId1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profileId2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
+      <t>ID1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>虚拟身份</t>
     </r>
     <r>
@@ -825,12 +804,30 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>ID1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      <t>ID2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forbiddenExpiredDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>LONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>虚拟身份</t>
     </r>
     <r>
@@ -840,31 +837,43 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>ID2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forbiddenExpiredDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONG</t>
-  </si>
-  <si>
-    <t>LONG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟身份</t>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressCardId</t>
+  </si>
+  <si>
+    <t>impressLabelId</t>
+  </si>
+  <si>
+    <t>impressLabel</t>
+  </si>
+  <si>
+    <t>impress1</t>
+  </si>
+  <si>
+    <t>impress2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象卡片</t>
     </r>
     <r>
       <rPr>
@@ -878,38 +887,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>appVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>impressCardId</t>
-  </si>
-  <si>
-    <t>impressLabelId</t>
-  </si>
-  <si>
-    <t>impressLabel</t>
-  </si>
-  <si>
-    <t>impress1</t>
-  </si>
-  <si>
-    <t>impress2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>印象卡片</t>
+    <r>
+      <t>ImpressLabel(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全局印象标签表</t>
     </r>
     <r>
       <rPr>
@@ -918,23 +907,23 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ImpressLabel(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全局印象标签表</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ImpressCard(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象卡片表</t>
     </r>
     <r>
       <rPr>
@@ -948,18 +937,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>ImpressCard(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>印象卡片表</t>
+    <t>每次双方确认匹配后，增加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入聊天后，加</t>
     </r>
     <r>
       <rPr>
@@ -968,24 +958,39 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次双方确认匹配后，增加1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进入聊天后，加</t>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和业务会话绑定后连接断掉就算掉线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
     </r>
     <r>
       <rPr>
@@ -994,39 +999,33 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和业务会话绑定后连接断掉就算掉线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统</t>
+      <t xml:space="preserve">  1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Profile(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟身份表</t>
     </r>
     <r>
       <rPr>
@@ -1035,33 +1034,56 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Profile(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟身份表</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemStatistics系统统计信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onlineDeviceCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomChatDeviceCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomDeviceCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interestDeviceCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatDeviceCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interestChatDeviceCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotInterestLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签集合</t>
     </r>
     <r>
       <rPr>
@@ -1070,56 +1092,23 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saveTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SystemStatistics系统统计信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onlineDeviceCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>randomChatDeviceCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>randomDeviceCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interestDeviceCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chatDeviceCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interestChatDeviceCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hotInterestLabel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标签集合</t>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>InterestLabelCollection(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣标签集合表</t>
     </r>
     <r>
       <rPr>
@@ -1128,23 +1117,35 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>InterestLabelCollection(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣标签集合表</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interestLabelId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interestLabelCollectionlId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interestLabelCollectionlId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ImpressLabelCollection(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象标签集合表</t>
     </r>
     <r>
       <rPr>
@@ -1158,30 +1159,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interestLabelId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interestLabelCollectionlId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interestLabelCollectionlId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ImpressLabelCollection(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>印象标签集合表</t>
+    <t>impressLabelCollectionlId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressLabelId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收到该印象标签的计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户使用该印象标签进行评价的计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Device</t>
     </r>
     <r>
       <rPr>
@@ -1190,28 +1189,133 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
+      <t>OperationLog</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemOperationLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SessionRecord(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聊天记录表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
       <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>impressLabelCollectionlId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>impressLabelId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户收到该印象标签的计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户使用该印象标签进行评价的计数</t>
+    <t>sessionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1双方确认 2视频通话 3对象评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1拒绝 2连接中断 3正常结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchInterestId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次匹配使用到的兴趣标签ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1663,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:I124"/>
+  <dimension ref="A3:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1685,7 +1789,7 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="D3" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1">
@@ -1715,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
@@ -1724,7 +1828,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>10</v>
@@ -1735,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>2</v>
@@ -1744,7 +1848,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -1753,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>12</v>
@@ -1762,10 +1866,10 @@
         <v>14</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1">
@@ -1773,19 +1877,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1">
@@ -1793,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>12</v>
@@ -1802,7 +1906,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I9" s="7"/>
     </row>
@@ -1811,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>2</v>
@@ -1820,7 +1924,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -1829,16 +1933,16 @@
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -1847,16 +1951,16 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -1865,16 +1969,16 @@
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -1883,16 +1987,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -1906,7 +2010,7 @@
     </row>
     <row r="17" spans="4:9">
       <c r="D17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="4:9">
@@ -1934,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>12</v>
@@ -1943,7 +2047,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>10</v>
@@ -1954,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>12</v>
@@ -1963,7 +2067,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -1972,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>12</v>
@@ -1981,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I21" s="7"/>
     </row>
@@ -1990,7 +2094,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>12</v>
@@ -1999,7 +2103,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I22" s="5"/>
     </row>
@@ -2013,7 +2117,7 @@
     </row>
     <row r="25" spans="4:9">
       <c r="D25" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="4:9">
@@ -2041,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>12</v>
@@ -2050,7 +2154,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>10</v>
@@ -2061,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>2</v>
@@ -2070,7 +2174,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I28" s="5"/>
     </row>
@@ -2079,7 +2183,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>12</v>
@@ -2088,15 +2192,15 @@
         <v>14</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="4:9">
       <c r="D32" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="4:9">
@@ -2124,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>12</v>
@@ -2133,7 +2237,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>10</v>
@@ -2144,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>2</v>
@@ -2153,7 +2257,7 @@
         <v>14</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" s="5"/>
     </row>
@@ -2162,19 +2266,19 @@
         <v>3</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="37" spans="4:9">
@@ -2187,7 +2291,7 @@
     </row>
     <row r="39" spans="4:9">
       <c r="D39" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="4:9">
@@ -2215,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>12</v>
@@ -2224,7 +2328,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>10</v>
@@ -2235,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>12</v>
@@ -2244,7 +2348,7 @@
         <v>14</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I42" s="5"/>
     </row>
@@ -2253,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>12</v>
@@ -2262,7 +2366,7 @@
         <v>14</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I43" s="7"/>
     </row>
@@ -2276,7 +2380,7 @@
     </row>
     <row r="46" spans="4:9">
       <c r="D46" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="4:9">
@@ -2304,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>12</v>
@@ -2313,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>10</v>
@@ -2324,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>12</v>
@@ -2333,7 +2437,7 @@
         <v>14</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I49" s="5"/>
     </row>
@@ -2342,7 +2446,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>12</v>
@@ -2351,7 +2455,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I50" s="7"/>
     </row>
@@ -2360,19 +2464,19 @@
         <v>5</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="8" t="s">
+      <c r="I51" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="52" spans="4:9">
@@ -2380,7 +2484,7 @@
         <v>6</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>12</v>
@@ -2389,10 +2493,10 @@
         <v>14</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="4:9">
@@ -2413,7 +2517,7 @@
     </row>
     <row r="55" spans="4:9">
       <c r="D55" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="4:9">
@@ -2441,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>12</v>
@@ -2450,7 +2554,7 @@
         <v>14</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>10</v>
@@ -2461,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>12</v>
@@ -2470,7 +2574,7 @@
         <v>14</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I58" s="5"/>
     </row>
@@ -2479,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>12</v>
@@ -2488,10 +2592,10 @@
         <v>14</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="4:9">
@@ -2499,7 +2603,7 @@
         <v>4</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>12</v>
@@ -2508,10 +2612,10 @@
         <v>14</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="4:9">
@@ -2519,7 +2623,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>12</v>
@@ -2528,10 +2632,10 @@
         <v>14</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="4:9">
@@ -2539,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>12</v>
@@ -2548,10 +2652,10 @@
         <v>14</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="4:9">
@@ -2564,7 +2668,7 @@
     </row>
     <row r="65" spans="4:9">
       <c r="D65" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="4:9">
@@ -2592,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>12</v>
@@ -2601,7 +2705,7 @@
         <v>14</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>10</v>
@@ -2612,7 +2716,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>12</v>
@@ -2621,7 +2725,7 @@
         <v>14</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I68" s="5"/>
     </row>
@@ -2630,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>12</v>
@@ -2639,7 +2743,7 @@
         <v>14</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I69" s="7"/>
     </row>
@@ -2648,7 +2752,7 @@
         <v>4</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>12</v>
@@ -2657,10 +2761,10 @@
         <v>14</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="4:9">
@@ -2668,19 +2772,19 @@
         <v>5</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="4:9">
@@ -2688,7 +2792,7 @@
         <v>6</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>12</v>
@@ -2697,10 +2801,10 @@
         <v>14</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="4:9">
@@ -2713,7 +2817,7 @@
     </row>
     <row r="75" spans="4:9">
       <c r="D75" s="3" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="4:9">
@@ -2741,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>12</v>
@@ -2750,7 +2854,7 @@
         <v>14</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>10</v>
@@ -2761,25 +2865,27 @@
         <v>2</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I78" s="5"/>
+        <v>166</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="79" spans="4:9">
       <c r="D79" s="4">
         <v>3</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>12</v>
@@ -2787,17 +2893,17 @@
       <c r="G79" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="I79" s="7"/>
+      <c r="H79" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" s="5"/>
     </row>
     <row r="80" spans="4:9">
       <c r="D80" s="4">
         <v>4</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>12</v>
@@ -2806,18 +2912,16 @@
         <v>14</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>57</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I80" s="7"/>
     </row>
     <row r="81" spans="4:9">
       <c r="D81" s="4">
         <v>5</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>12</v>
@@ -2826,10 +2930,10 @@
         <v>14</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="4:9">
@@ -2837,550 +2941,737 @@
         <v>6</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I82" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="83" spans="4:9">
       <c r="D83" s="4">
         <v>7</v>
       </c>
       <c r="E83" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="4:9">
+      <c r="D84" s="4">
+        <v>8</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" spans="4:9">
+      <c r="D85" s="4">
+        <v>9</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>54</v>
+      <c r="I85" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="4:9">
-      <c r="D86" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="4:9">
-      <c r="D87" s="9" t="s">
+      <c r="D86" s="4">
+        <v>10</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="4:9">
+      <c r="D89" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="4:9">
+      <c r="D90" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E90" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F90" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G90" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="H90" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="I90" s="10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="4:9">
-      <c r="D88" s="4">
-        <v>1</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="4:9">
-      <c r="D89" s="4">
-        <v>2</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I89" s="5"/>
-    </row>
-    <row r="90" spans="4:9">
-      <c r="D90" s="4">
-        <v>3</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="91" spans="4:9">
       <c r="D91" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="4:9">
       <c r="D92" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="I92" s="5"/>
     </row>
     <row r="93" spans="4:9">
       <c r="D93" s="4">
+        <v>3</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="4:9">
+      <c r="D94" s="4">
+        <v>4</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="4:9">
+      <c r="D95" s="4">
+        <v>5</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="4:9">
+      <c r="D96" s="4">
         <v>6</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F93" s="5" t="s">
+      <c r="E96" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I93" s="5"/>
-    </row>
-    <row r="96" spans="4:9">
-      <c r="D96" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97" spans="4:9">
-      <c r="D97" s="9" t="s">
+      <c r="G96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="99" spans="4:9">
+      <c r="D99" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="4:9">
+      <c r="D100" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E100" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="F100" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G100" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H97" s="11" t="s">
+      <c r="H100" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="I100" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="4:9">
-      <c r="D98" s="4">
-        <v>1</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="4:9">
-      <c r="D99" s="4">
-        <v>2</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" spans="4:9">
-      <c r="D100" s="4">
-        <v>3</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I100" s="5"/>
     </row>
     <row r="101" spans="4:9">
       <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="4:9">
+      <c r="D102" s="4">
+        <v>2</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="4:9">
+      <c r="D103" s="4">
+        <v>3</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="4:9">
+      <c r="D104" s="4">
         <v>4</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="4"/>
-      <c r="H101" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="4:9">
-      <c r="D104" s="3" t="s">
-        <v>88</v>
+      <c r="E104" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="4:9">
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="4">
+        <v>6</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="108" spans="4:9">
+      <c r="D108" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="4:9">
+      <c r="D109" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E109" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F105" s="10" t="s">
+      <c r="F109" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="G109" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H105" s="11" t="s">
+      <c r="H109" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I105" s="10" t="s">
+      <c r="I109" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="4:9">
-      <c r="D106" s="4">
-        <v>1</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="4:9">
-      <c r="D107" s="4">
-        <v>2</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="108" spans="4:9">
-      <c r="D108" s="4">
-        <v>3</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I108" s="5"/>
-    </row>
-    <row r="109" spans="4:9">
-      <c r="D109" s="4">
-        <v>4</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I109" s="5"/>
     </row>
     <row r="110" spans="4:9">
       <c r="D110" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I110" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="111" spans="4:9">
       <c r="D111" s="4">
+        <v>2</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="4:9">
+      <c r="D112" s="4">
+        <v>3</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="4:9">
+      <c r="D113" s="4">
+        <v>4</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="4:9">
+      <c r="D116" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="4:9">
+      <c r="D117" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I111" s="5"/>
-    </row>
-    <row r="114" spans="4:9">
-      <c r="D114" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="4:9">
-      <c r="D115" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H115" s="11" t="s">
+      <c r="H117" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="I117" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="4:9">
-      <c r="D116" s="4">
-        <v>1</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="4:9">
-      <c r="D117" s="4">
-        <v>2</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F117" s="5"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="5"/>
     </row>
     <row r="118" spans="4:9">
       <c r="D118" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F118" s="5"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="119" spans="4:9">
       <c r="D119" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F119" s="5"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="120" spans="4:9">
       <c r="D120" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F120" s="5"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="4:9">
       <c r="D121" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F121" s="5"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="I121" s="5"/>
     </row>
     <row r="122" spans="4:9">
       <c r="D122" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F122" s="5"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="I122" s="5"/>
     </row>
     <row r="123" spans="4:9">
       <c r="D123" s="4">
+        <v>6</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="126" spans="4:9">
+      <c r="D126" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="4:9">
+      <c r="D127" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I127" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E123" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F123" s="5"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="5"/>
-    </row>
-    <row r="124" spans="4:9">
-      <c r="D124" s="4">
+    </row>
+    <row r="128" spans="4:9">
+      <c r="D128" s="4">
+        <v>1</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I128" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F124" s="5"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="5"/>
+    </row>
+    <row r="129" spans="4:9">
+      <c r="D129" s="4">
+        <v>2</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="4:9">
+      <c r="D130" s="4">
+        <v>3</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F130" s="5"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="4:9">
+      <c r="D131" s="4">
+        <v>4</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F131" s="5"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="4:9">
+      <c r="D132" s="4">
+        <v>5</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="4:9">
+      <c r="D133" s="4">
+        <v>6</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="4:9">
+      <c r="D134" s="4">
+        <v>7</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="4:9">
+      <c r="D135" s="4">
+        <v>8</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F135" s="5"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="4:9">
+      <c r="D136" s="4">
+        <v>9</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F136" s="5"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Documents/数据表设计.xlsx
+++ b/Documents/数据表设计.xlsx
@@ -8,13 +8,47 @@
   </bookViews>
   <sheets>
     <sheet name="RenHai" sheetId="1" r:id="rId1"/>
+    <sheet name="依赖关系" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D94" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>考虑将来的扩展，一个会话可能有多个</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>profile</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="230">
   <si>
     <t>序号</t>
   </si>
@@ -292,57 +326,6 @@
     <t>VARCHAR(128)</t>
   </si>
   <si>
-    <t>Profile(虚拟身份表)</t>
-  </si>
-  <si>
-    <t>GlobalInterestLabel(全局兴趣标签表)</t>
-  </si>
-  <si>
-    <t>GlobalImpressLabel(全局印象标签表)</t>
-  </si>
-  <si>
-    <t>InterestCard(兴趣卡片表)</t>
-  </si>
-  <si>
-    <t>InterestLabelCollection(兴趣标签集合表)</t>
-  </si>
-  <si>
-    <t>ImpressCard(印象卡片表)</t>
-  </si>
-  <si>
-    <t>ImpressLabelCollection(印象标签集合表)</t>
-  </si>
-  <si>
-    <t>SessionRecord(聊天记录表)</t>
-  </si>
-  <si>
-    <t>SessionImpressCollection(会话印象标签集合)</t>
-  </si>
-  <si>
-    <t>ProfileOperationLog(用户操作日志)</t>
-  </si>
-  <si>
-    <t>SystemOperationLog(系统操作日志)</t>
-  </si>
-  <si>
-    <t>OperationCodeDefinition(操作码定义表)</t>
-  </si>
-  <si>
-    <t>ModuleDefinition(系统模块定义表)</t>
-  </si>
-  <si>
-    <t>WebRtcSession(WebRtc会话表)</t>
-  </si>
-  <si>
-    <t>SystemStatistics(系统统计信息表)</t>
-  </si>
-  <si>
-    <t>StatisticsItemDefinition(统计项定义表)</t>
-  </si>
-  <si>
-    <t>HotInterestLabelStatistics(系统统计信息表)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1111,19 +1094,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>profileId1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟身份</t>
+    <t>startTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双方确认</t>
     </r>
     <r>
       <rPr>
@@ -1132,24 +1138,17 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>ID1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profileId2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟身份</t>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频通话</t>
     </r>
     <r>
       <rPr>
@@ -1158,32 +1157,26 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>ID2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会话状态</t>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1198,7 +1191,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>双方确认</t>
+      <t>拒绝</t>
     </r>
     <r>
       <rPr>
@@ -1217,7 +1210,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>视频通话</t>
+      <t>连接中断</t>
     </r>
     <r>
       <rPr>
@@ -1236,31 +1229,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>对象评价</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endReason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝</t>
+      <t>正常结束</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionImpressMapId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本次会话中使用的次数，范围</t>
     </r>
     <r>
       <rPr>
@@ -1269,17 +1255,51 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连接中断</t>
+      <t xml:space="preserve"> [1, 2]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profileId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemOperationLogId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录日志的模块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationCodeDefinitionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有</t>
     </r>
     <r>
       <rPr>
@@ -1288,34 +1308,17 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常结束</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sessionImpressMapId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本次会话中使用的次数，范围</t>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
     </r>
     <r>
       <rPr>
@@ -1324,16 +1327,22 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> [1, 2]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profileId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemOperationLogId</t>
+      <t xml:space="preserve">  2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleDefinitionId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1341,15 +1350,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录日志的模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationCodeDefinitionId</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块编码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>moduleId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值定义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemStatisticsId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1358,17 +1449,214 @@
   </si>
   <si>
     <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所有</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保存时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计项</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计项定义见统计项定义表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsItemDefinitionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>statisticsItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值定义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在线设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机业务设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣业务设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处于聊天状态设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机聊天设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣聊天设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热门标签</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotInterestLabelStatisticsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>globalInterestLabelId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象标签</t>
     </r>
     <r>
       <rPr>
@@ -1377,17 +1665,23 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统</t>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Profile(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟身份表</t>
     </r>
     <r>
       <rPr>
@@ -1396,336 +1690,23 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleDefinitionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块编码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>moduleId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值定义</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>util</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>websocket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Session</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字符串</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemStatisticsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保存时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statisticsItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统计项</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统计项定义见统计项定义表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statisticsItemDefinitionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>statisticsItem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值定义</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在线设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机业务设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣业务设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>处于聊天状态设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机聊天设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣聊天设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>热门标签</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hotInterestLabelStatisticsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>globalInterestLabelId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>印象标签</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GlobalInterestLabel(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全局兴趣标签表</t>
     </r>
     <r>
       <rPr>
@@ -1734,12 +1715,551 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GlobalImpressLabel(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全局印象标签表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>InterestCard(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣卡片表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>InterestLabelCollection(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣标签集合表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ImpressCard(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象卡片表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ImpressLabelCollection(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象标签集合表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ProfileOperationLog(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户操作日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SystemOperationLog(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统操作日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OperationCodeDefinition(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作码定义表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ModuleDefinition(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统模块定义表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WebRtcSession(WebRtc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SystemStatistics(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统统计信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>StatisticsItemDefinition(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计项定义表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HotInterestLabelStatistics(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统统计信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SessionRecord(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话记录表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isJailed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否越狱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未越狱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>越狱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceProfileMapId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要建索引的非自增长字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟身份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
       <t>ID</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非自增长字段索引</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>映射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DeviceProfileMap(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备虚拟身份映射表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SessionProfileCollection(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话身份映射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话身份映射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作码</t>
+  </si>
+  <si>
+    <t>操作码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>ENUM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1747,7 +2267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1781,6 +2301,19 @@
       <color theme="0"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1844,7 +2377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1905,6 +2438,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1912,6 +2451,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="~edx3.emf" descr="C:\DOCUME~1\A\LOCALS~1\Temp\~edx3.emf"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="66675"/>
+          <a:ext cx="11976100" cy="7251700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2199,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I177"/>
+  <dimension ref="A2:I183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2222,7 +2804,7 @@
     <row r="2" spans="1:9">
       <c r="D2" s="15"/>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2263,19 +2845,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1">
@@ -2283,16 +2865,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2301,16 +2883,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2319,19 +2901,19 @@
         <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1">
@@ -2339,19 +2921,19 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1">
@@ -2359,16 +2941,16 @@
         <v>6</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2377,16 +2959,16 @@
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2395,16 +2977,16 @@
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2413,16 +2995,16 @@
         <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2431,661 +3013,654 @@
         <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="4:9">
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="19" spans="4:9">
-      <c r="D19" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="D17" s="4">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9">
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="20" spans="4:9">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9">
+      <c r="D21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I21" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9">
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="4:9">
       <c r="D22" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="5"/>
+        <v>219</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="4:9">
       <c r="D23" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="4:9">
       <c r="D24" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="4:9">
       <c r="D25" s="4">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9">
+      <c r="D26" s="4">
         <v>5</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9">
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="12"/>
+      <c r="E26" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="4:9">
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="4:9">
-      <c r="D28" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="4:9">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="4:9">
+      <c r="D30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I30" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9">
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="4:9">
       <c r="D31" s="4">
-        <v>2</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="5"/>
+        <v>220</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="32" spans="4:9">
       <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9">
+      <c r="D33" s="4">
         <v>3</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="E33" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="F33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9">
-      <c r="D35" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="I33" s="5"/>
     </row>
     <row r="36" spans="4:9">
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9">
+      <c r="D37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I37" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9">
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="38" spans="4:9">
       <c r="D38" s="4">
-        <v>2</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="39" spans="4:9">
       <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="4:9">
+      <c r="D40" s="4">
         <v>3</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9">
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="42" spans="4:9">
-      <c r="D42" s="3" t="s">
+      <c r="E40" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="H40" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="43" spans="4:9">
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9">
+      <c r="D44" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I44" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9">
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="45" spans="4:9">
       <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9">
+      <c r="D46" s="4">
         <v>2</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9">
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="12"/>
+      <c r="E46" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="4:9">
+      <c r="D47" s="4">
+        <v>3</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="48" spans="4:9">
-      <c r="D48" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9">
-      <c r="D49" s="7" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="50" spans="4:9">
+      <c r="D50" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9">
+      <c r="D51" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H51" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I51" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="4:9">
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9">
-      <c r="D51" s="4">
-        <v>2</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="5"/>
     </row>
     <row r="52" spans="4:9">
       <c r="D52" s="4">
-        <v>3</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I52" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="53" spans="4:9">
       <c r="D53" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="4:9">
-      <c r="D54" s="4">
-        <v>5</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="4:9">
-      <c r="D55" s="4">
-        <v>6</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="56" spans="4:9">
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="12"/>
+      <c r="D56" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="57" spans="4:9">
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="12"/>
+      <c r="D57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="58" spans="4:9">
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59" spans="4:9">
-      <c r="D59" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="D59" s="4">
+        <v>2</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="5"/>
     </row>
     <row r="60" spans="4:9">
       <c r="D60" s="4">
-        <v>1</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I60" s="5"/>
     </row>
     <row r="61" spans="4:9">
       <c r="D61" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="4:9">
       <c r="D62" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="4:9">
       <c r="D63" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="4:9">
@@ -3096,9 +3671,17 @@
       <c r="H64" s="13"/>
       <c r="I64" s="12"/>
     </row>
+    <row r="65" spans="4:9">
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="12"/>
+    </row>
     <row r="66" spans="4:9">
       <c r="D66" s="3" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="4:9">
@@ -3126,563 +3709,577 @@
         <v>1</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="4:9">
       <c r="D69" s="4">
         <v>2</v>
       </c>
-      <c r="E69" s="17" t="s">
-        <v>132</v>
+      <c r="E69" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I69" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="70" spans="4:9">
       <c r="D70" s="4">
         <v>3</v>
       </c>
-      <c r="E70" s="17" t="s">
-        <v>115</v>
+      <c r="E70" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="71" spans="4:9">
       <c r="D71" s="4">
         <v>4</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="4:9">
-      <c r="D72" s="4">
-        <v>5</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="4:9">
-      <c r="D73" s="4">
-        <v>6</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>151</v>
-      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="74" spans="4:9">
-      <c r="D74" s="11"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="12"/>
+      <c r="D74" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="4:9">
+      <c r="D75" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="76" spans="4:9">
-      <c r="D76" s="3" t="s">
-        <v>63</v>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="4:9">
-      <c r="D77" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="D77" s="4">
+        <v>2</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I77" s="5"/>
     </row>
     <row r="78" spans="4:9">
       <c r="D78" s="4">
-        <v>1</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>152</v>
+        <v>3</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I78" s="5"/>
     </row>
     <row r="79" spans="4:9">
       <c r="D79" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="4:9">
       <c r="D80" s="4">
-        <v>3</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>157</v>
+        <v>5</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I80" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="81" spans="4:9">
       <c r="D81" s="4">
+        <v>6</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="4:9">
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="12"/>
+    </row>
+    <row r="84" spans="4:9">
+      <c r="D84" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9">
+      <c r="D85" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="4:9">
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="4:9">
+      <c r="D87" s="4">
+        <v>2</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="4:9">
+      <c r="D88" s="4">
+        <v>3</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="4:9">
+      <c r="D89" s="4">
         <v>4</v>
       </c>
-      <c r="E81" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="4:9">
-      <c r="D82" s="4">
-        <v>5</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="4:9">
-      <c r="D83" s="4">
-        <v>6</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="4:9">
-      <c r="D84" s="4">
-        <v>7</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="4:9">
-      <c r="D85" s="4">
-        <v>8</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="4:9">
-      <c r="D86" s="11"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="12"/>
-    </row>
-    <row r="88" spans="4:9">
-      <c r="D88" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="4:9">
-      <c r="D89" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>23</v>
+      <c r="E89" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="4:9">
       <c r="D90" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="4:9">
       <c r="D91" s="4">
+        <v>6</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="4:9">
+      <c r="D92" s="11"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="12"/>
+    </row>
+    <row r="94" spans="4:9">
+      <c r="D94" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="4:9">
+      <c r="D95" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="4:9">
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="4:9">
+      <c r="D97" s="4">
         <v>2</v>
       </c>
-      <c r="E91" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="4:9">
-      <c r="D92" s="4">
-        <v>3</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I92" s="5"/>
-    </row>
-    <row r="93" spans="4:9">
-      <c r="D93" s="4">
-        <v>4</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="96" spans="4:9">
-      <c r="D96" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="4:9">
-      <c r="D97" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="E97" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I97" s="5"/>
     </row>
     <row r="98" spans="4:9">
       <c r="D98" s="4">
-        <v>1</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="I98" s="5"/>
     </row>
     <row r="99" spans="4:9">
       <c r="D99" s="4">
+        <v>4</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="4:9">
+      <c r="D102" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="4:9">
+      <c r="D103" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="4:9">
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E99" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F99" s="5" t="s">
+    </row>
+    <row r="105" spans="4:9">
+      <c r="D105" s="4">
+        <v>2</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F105" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G105" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="H105" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="4:9">
-      <c r="D100" s="4">
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="4:9">
+      <c r="D106" s="4">
         <v>3</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F106" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G106" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H106" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="4:9">
-      <c r="D101" s="4">
-        <v>4</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="4:9">
-      <c r="D102" s="4">
-        <v>5</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="4:9">
-      <c r="D105" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="106" spans="4:9">
-      <c r="D106" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="I106" s="5"/>
     </row>
     <row r="107" spans="4:9">
       <c r="D107" s="4">
-        <v>1</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>174</v>
+        <v>4</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>3</v>
@@ -3691,18 +4288,16 @@
         <v>4</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I107" s="5"/>
     </row>
     <row r="108" spans="4:9">
       <c r="D108" s="4">
-        <v>2</v>
-      </c>
-      <c r="E108" s="17" t="s">
-        <v>175</v>
+        <v>5</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>1</v>
@@ -3711,99 +4306,101 @@
         <v>5</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="109" spans="4:9">
-      <c r="D109" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="4:9">
+      <c r="D111" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="112" spans="4:9">
+      <c r="D112" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="4:9">
+      <c r="D113" s="4">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="G113" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="4:9">
+      <c r="D114" s="4">
+        <v>2</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="4:9">
+      <c r="D115" s="4">
+        <v>3</v>
+      </c>
+      <c r="E115" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F115" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G115" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H109" s="6" t="s">
+      <c r="H115" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="4:9">
-      <c r="D110" s="4">
-        <v>4</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="4:9">
-      <c r="D111" s="4">
-        <v>5</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="4:9">
-      <c r="D114" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="4:9">
-      <c r="D115" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I115" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="I115" s="5"/>
     </row>
     <row r="116" spans="4:9">
       <c r="D116" s="4">
-        <v>1</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>178</v>
+        <v>4</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>3</v>
@@ -3811,731 +4408,818 @@
       <c r="G116" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H116" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="H116" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="I116" s="5"/>
     </row>
     <row r="117" spans="4:9">
       <c r="D117" s="4">
+        <v>5</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="4:9">
+      <c r="D120" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="4:9">
+      <c r="D121" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="4:9">
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I122" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="18" t="s">
+    </row>
+    <row r="123" spans="4:9">
+      <c r="D123" s="4">
+        <v>2</v>
+      </c>
+      <c r="E123" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F123" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G117" s="4" t="s">
+      <c r="G123" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H117" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" s="5"/>
-    </row>
-    <row r="118" spans="4:9">
-      <c r="D118" s="4">
-        <v>3</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="119" spans="4:9">
-      <c r="D119" s="4">
-        <v>4</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I119" s="5"/>
-    </row>
-    <row r="122" spans="4:9">
-      <c r="D122" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="123" spans="4:9">
-      <c r="D123" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="H123" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I123" s="5"/>
     </row>
     <row r="124" spans="4:9">
       <c r="D124" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="4:9">
       <c r="D125" s="4">
-        <v>2</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>182</v>
+        <v>4</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="I125" s="5"/>
-    </row>
-    <row r="126" spans="4:9">
-      <c r="D126" s="4">
-        <v>3</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="I126" s="5"/>
-    </row>
-    <row r="127" spans="4:9">
-      <c r="D127" s="11"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="12"/>
     </row>
     <row r="128" spans="4:9">
       <c r="D128" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G128" s="3"/>
+        <v>207</v>
+      </c>
     </row>
     <row r="129" spans="4:9">
-      <c r="D129" s="2">
+      <c r="D129" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="4:9">
+      <c r="D130" s="4">
         <v>1</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="4:9">
-      <c r="D130" s="2">
+      <c r="E130" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I130" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F130" s="3"/>
     </row>
     <row r="131" spans="4:9">
-      <c r="D131" s="2">
+      <c r="D131" s="4">
+        <v>2</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F131" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F131" s="3"/>
+      <c r="G131" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I131" s="5"/>
     </row>
     <row r="132" spans="4:9">
-      <c r="D132" s="2">
-        <v>4</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F132" s="3"/>
+      <c r="D132" s="4">
+        <v>3</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I132" s="5"/>
     </row>
     <row r="133" spans="4:9">
-      <c r="D133" s="2">
-        <v>5</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F133" s="3"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="12"/>
     </row>
     <row r="134" spans="4:9">
-      <c r="D134" s="2">
-        <v>6</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G134" s="3"/>
     </row>
     <row r="135" spans="4:9">
       <c r="D135" s="2">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="4:9">
+      <c r="D136" s="2">
+        <v>2</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="4:9">
+      <c r="D137" s="2">
+        <v>3</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="4:9">
+      <c r="D138" s="2">
+        <v>4</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="4:9">
+      <c r="D139" s="2">
+        <v>5</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="4:9">
+      <c r="D140" s="2">
+        <v>6</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="4:9">
+      <c r="D141" s="2">
         <v>7</v>
       </c>
-      <c r="E135" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F135" s="3"/>
-    </row>
-    <row r="138" spans="4:9">
-      <c r="D138" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="139" spans="4:9">
-      <c r="D139" s="7" t="s">
+      <c r="E141" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="144" spans="4:9">
+      <c r="D144" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="4:9">
+      <c r="D145" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E145" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="F145" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="G145" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H139" s="9" t="s">
+      <c r="H145" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I139" s="8" t="s">
+      <c r="I145" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="4:9">
-      <c r="D140" s="4">
+    <row r="146" spans="4:9">
+      <c r="D146" s="4">
         <v>1</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E146" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F146" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="G146" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H140" s="6" t="s">
+      <c r="H146" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I140" s="5" t="s">
+      <c r="I146" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="4:9">
-      <c r="D141" s="4">
+    <row r="147" spans="4:9">
+      <c r="D147" s="4">
         <v>2</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E147" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F147" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G141" s="4" t="s">
+      <c r="G147" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H141" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I141" s="5" t="s">
+      <c r="H147" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I147" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="4:9">
-      <c r="D142" s="4">
+    <row r="148" spans="4:9">
+      <c r="D148" s="4">
         <v>3</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="E148" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F148" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G142" s="4" t="s">
+      <c r="G148" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H142" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I142" s="5"/>
-    </row>
-    <row r="143" spans="4:9">
-      <c r="D143" s="4">
+      <c r="H148" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="4:9">
+      <c r="D149" s="4">
         <v>4</v>
       </c>
-      <c r="E143" s="5" t="s">
+      <c r="E149" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F149" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G143" s="4" t="s">
+      <c r="G149" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H143" s="6" t="s">
+      <c r="H149" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I143" s="5"/>
-    </row>
-    <row r="144" spans="4:9">
-      <c r="D144" s="4">
-        <v>5</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H144" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I144" s="5"/>
-    </row>
-    <row r="145" spans="4:9">
-      <c r="D145" s="4">
-        <v>6</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I145" s="5"/>
-    </row>
-    <row r="148" spans="4:9">
-      <c r="D148" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="149" spans="4:9">
-      <c r="D149" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I149" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="I149" s="5"/>
     </row>
     <row r="150" spans="4:9">
       <c r="D150" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I150" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I150" s="5"/>
     </row>
     <row r="151" spans="4:9">
       <c r="D151" s="4">
+        <v>6</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I151" s="5"/>
+    </row>
+    <row r="154" spans="4:9">
+      <c r="D154" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="4:9">
+      <c r="D155" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="4:9">
+      <c r="D156" s="4">
+        <v>1</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I156" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E151" s="5" t="s">
+    </row>
+    <row r="157" spans="4:9">
+      <c r="D157" s="4">
+        <v>2</v>
+      </c>
+      <c r="E157" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="F157" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G151" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H151" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="I151" s="5"/>
-    </row>
-    <row r="152" spans="4:9">
-      <c r="D152" s="4">
-        <v>3</v>
-      </c>
-      <c r="E152" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I152" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="153" spans="4:9">
-      <c r="D153" s="4">
-        <v>4</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H153" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I153" s="5"/>
-    </row>
-    <row r="156" spans="4:9">
-      <c r="D156" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="157" spans="4:9">
-      <c r="D157" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H157" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I157" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="G157" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I157" s="5"/>
     </row>
     <row r="158" spans="4:9">
       <c r="D158" s="4">
-        <v>1</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>204</v>
+        <v>3</v>
+      </c>
+      <c r="E158" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="4:9">
       <c r="D159" s="4">
-        <v>2</v>
-      </c>
-      <c r="E159" s="18" t="s">
-        <v>198</v>
+        <v>4</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="I159" s="5"/>
-    </row>
-    <row r="160" spans="4:9">
-      <c r="D160" s="4">
-        <v>3</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H160" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I160" s="5"/>
     </row>
     <row r="162" spans="4:9">
       <c r="D162" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G162" s="3"/>
+        <v>210</v>
+      </c>
     </row>
     <row r="163" spans="4:9">
-      <c r="D163" s="2">
+      <c r="D163" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="4:9">
+      <c r="D164" s="4">
         <v>1</v>
       </c>
-      <c r="E163" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="164" spans="4:9">
-      <c r="D164" s="2">
+      <c r="E164" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I164" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E164" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="165" spans="4:9">
-      <c r="D165" s="2">
+      <c r="D165" s="4">
+        <v>2</v>
+      </c>
+      <c r="E165" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I165" s="5"/>
+    </row>
+    <row r="166" spans="4:9">
+      <c r="D166" s="4">
         <v>3</v>
       </c>
-      <c r="E165" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="166" spans="4:9">
-      <c r="D166" s="2">
-        <v>4</v>
-      </c>
-      <c r="E166" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="167" spans="4:9">
-      <c r="D167" s="2">
-        <v>5</v>
-      </c>
-      <c r="E167" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>212</v>
-      </c>
+      <c r="E166" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I166" s="5"/>
     </row>
     <row r="168" spans="4:9">
-      <c r="D168" s="2">
-        <v>6</v>
-      </c>
-      <c r="E168" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>213</v>
-      </c>
+      <c r="D168" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G168" s="3"/>
     </row>
     <row r="169" spans="4:9">
       <c r="D169" s="2">
+        <v>1</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="170" spans="4:9">
+      <c r="D170" s="2">
+        <v>2</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="171" spans="4:9">
+      <c r="D171" s="2">
+        <v>3</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="172" spans="4:9">
+      <c r="D172" s="2">
+        <v>4</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="173" spans="4:9">
+      <c r="D173" s="2">
+        <v>5</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="174" spans="4:9">
+      <c r="D174" s="2">
+        <v>6</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="175" spans="4:9">
+      <c r="D175" s="2">
         <v>7</v>
       </c>
-      <c r="E169" s="12" t="s">
+      <c r="E175" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F169" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="172" spans="4:9">
-      <c r="D172" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="173" spans="4:9">
-      <c r="D173" s="7" t="s">
+      <c r="F175" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="178" spans="4:9">
+      <c r="D178" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="4:9">
+      <c r="D179" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E173" s="8" t="s">
+      <c r="E179" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F173" s="8" t="s">
+      <c r="F179" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G173" s="7" t="s">
+      <c r="G179" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H173" s="9" t="s">
+      <c r="H179" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I173" s="8" t="s">
+      <c r="I179" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="4:9">
-      <c r="D174" s="4">
+    <row r="180" spans="4:9">
+      <c r="D180" s="4">
         <v>1</v>
       </c>
-      <c r="E174" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F174" s="5" t="s">
+      <c r="E180" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F180" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G174" s="4" t="s">
+      <c r="G180" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H174" s="6" t="s">
+      <c r="H180" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I174" s="5" t="s">
+      <c r="I180" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="4:9">
-      <c r="D175" s="4">
+    <row r="181" spans="4:9">
+      <c r="D181" s="4">
         <v>2</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E181" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F181" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G175" s="4" t="s">
+      <c r="G181" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="4:9">
+      <c r="D182" s="4">
+        <v>3</v>
+      </c>
+      <c r="E182" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H182" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H175" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="I175" s="5"/>
-    </row>
-    <row r="176" spans="4:9">
-      <c r="D176" s="4">
-        <v>3</v>
-      </c>
-      <c r="E176" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H176" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I176" s="5"/>
-    </row>
-    <row r="177" spans="4:9">
-      <c r="D177" s="4">
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="4:9">
+      <c r="D183" s="4">
         <v>4</v>
       </c>
-      <c r="E177" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H177" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I177" s="5"/>
+      <c r="E183" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I183" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D6"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:4">
+      <c r="D6" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/数据表设计.xlsx
+++ b/Documents/数据表设计.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RenHai" sheetId="1" r:id="rId1"/>
     <sheet name="依赖关系" sheetId="2" r:id="rId2"/>
     <sheet name="日志表记录" sheetId="3" r:id="rId3"/>
+    <sheet name="全局错误码" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="271">
   <si>
     <t>序号</t>
   </si>
@@ -2345,6 +2346,66 @@
   </si>
   <si>
     <t>数据库操作异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server内部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket连接建立失败（主要是相关资源建立失败）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法JSON请求（字符串不符合JSON规范）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统在线容量达到上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入业务失败，容量达到上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备WebSocket连接超时被关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备响应超时导致连接被释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不当业务请求（请求和当前状态不符，比如还没有进入业务就确认匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法业务请求，设备无权限（如被禁言）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法请求，但由于未知异常导致失败（业务逻辑的失败由JSONRequest处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息同步由于未知原因失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计信息查询由于未知原因失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于未知原因退出业务设备池失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法业务请求，参数错误（业务逻辑的失败由JSONRequest处理并提供原因）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2470,7 +2531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2550,6 +2611,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2891,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I184"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5354,7 +5421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -5626,4 +5693,321 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A5:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="24"/>
+    <col min="2" max="2" width="9" style="20"/>
+    <col min="3" max="3" width="7.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="67" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:4">
+      <c r="C5" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="23">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="23">
+        <v>1001</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="23">
+        <v>1002</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="23">
+        <v>1003</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="23">
+        <v>1004</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="23">
+        <v>1005</v>
+      </c>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="23">
+        <v>1006</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="23">
+        <v>1007</v>
+      </c>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="23">
+        <v>1008</v>
+      </c>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="23">
+        <v>1009</v>
+      </c>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="23">
+        <v>1100</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="23">
+        <v>1101</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="23">
+        <v>1102</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="27">
+        <v>1103</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="23">
+        <v>1104</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="23">
+        <v>1105</v>
+      </c>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="23">
+        <v>1106</v>
+      </c>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="23">
+        <v>1107</v>
+      </c>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="23">
+        <v>1108</v>
+      </c>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="23">
+        <v>1109</v>
+      </c>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="23">
+        <v>1200</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="23">
+        <v>1201</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="23">
+        <v>1202</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="23">
+        <v>1203</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="23">
+        <v>1204</v>
+      </c>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="23">
+        <v>1205</v>
+      </c>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="23">
+        <v>1206</v>
+      </c>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="23">
+        <v>1207</v>
+      </c>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="23">
+        <v>1</v>
+      </c>
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="23">
+        <v>2</v>
+      </c>
+      <c r="D39" s="22"/>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="23">
+        <v>3</v>
+      </c>
+      <c r="D40" s="22"/>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="23">
+        <v>4</v>
+      </c>
+      <c r="D41" s="22"/>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="23">
+        <v>5</v>
+      </c>
+      <c r="D42" s="22"/>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="23">
+        <v>6</v>
+      </c>
+      <c r="D43" s="22"/>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="23">
+        <v>7</v>
+      </c>
+      <c r="D44" s="22"/>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="23">
+        <v>8</v>
+      </c>
+      <c r="D45" s="22"/>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="23">
+        <v>9</v>
+      </c>
+      <c r="D46" s="22"/>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="23">
+        <v>10</v>
+      </c>
+      <c r="D47" s="22"/>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="23">
+        <v>11</v>
+      </c>
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="23">
+        <v>12</v>
+      </c>
+      <c r="D49" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/数据表设计.xlsx
+++ b/Documents/数据表设计.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RenHai" sheetId="1" r:id="rId1"/>
     <sheet name="依赖关系" sheetId="2" r:id="rId2"/>
     <sheet name="日志表记录" sheetId="3" r:id="rId3"/>
     <sheet name="全局错误码" sheetId="4" r:id="rId4"/>
+    <sheet name="全局Timer" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="303">
   <si>
     <t>序号</t>
   </si>
@@ -2406,6 +2407,200 @@
   </si>
   <si>
     <t>非法业务请求，参数错误（业务逻辑的失败由JSONRequest处理并提供原因）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Timer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发同步消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时时间内收到回应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线设备池超时连接检查定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DaoWrapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保存数据定时器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认匹配定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效Token检测定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到回话绑定通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在指定时间内做出选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象评价定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入印象评价界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在指定时间内完成操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送同步消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定时间内接收到响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备业务空闲定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App退出或者不在前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App处于前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息定时器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方确认超时定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到双方的绑定确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时时间内收到聊天确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方评价超时定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务会话进入双方评价状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方完成印象评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息响应定时器</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2413,7 +2608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2468,6 +2663,38 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2531,7 +2758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2617,6 +2844,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2958,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I184"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A163" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5421,8 +5678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5699,8 +5956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6010,4 +6267,312 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="9" style="32"/>
+    <col min="2" max="2" width="9" style="33"/>
+    <col min="3" max="3" width="7.125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15" style="34" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="33" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7">
+      <c r="C3" s="33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27">
+      <c r="A4" s="35"/>
+      <c r="C4" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="30">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="30">
+        <v>9</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="30">
+        <v>2</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="30">
+        <v>30</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="30">
+        <v>3</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="30">
+        <v>15</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="30">
+        <v>4</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="30">
+        <v>60</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="30">
+        <v>5</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="E9" s="30">
+        <v>3600</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="30">
+        <v>6</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="30">
+        <v>30</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="30">
+        <v>7</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="30">
+        <v>180</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="30">
+        <v>8</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27">
+      <c r="A16" s="35"/>
+      <c r="C16" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="30">
+        <v>1</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="30">
+        <v>9</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="30">
+        <v>2</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" s="30">
+        <v>60</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="30">
+        <v>3</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="30">
+        <v>9</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="30">
+        <v>4</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="30">
+        <v>180</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="30">
+        <v>5</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" s="30">
+        <v>5</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="30">
+        <v>6</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="30">
+        <v>7</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/数据表设计.xlsx
+++ b/Documents/数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="RenHai" sheetId="1" r:id="rId1"/>
@@ -915,10 +915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>totalChatDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聊天总时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2601,6 +2597,10 @@
       </rPr>
       <t>消息响应定时器</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatTotalDuration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3215,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I184"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G190" sqref="G190"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3242,7 +3242,7 @@
     <row r="3" spans="1:9">
       <c r="D3" s="19"/>
       <c r="E3" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3336,7 +3336,7 @@
         <v>67</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>58</v>
@@ -3463,19 +3463,19 @@
         <v>11</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="I17" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="18" spans="4:9">
@@ -3488,7 +3488,7 @@
     </row>
     <row r="20" spans="4:9">
       <c r="D20" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="4:9">
@@ -3525,7 +3525,7 @@
         <v>58</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>60</v>
@@ -3592,7 +3592,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>64</v>
@@ -3601,7 +3601,7 @@
         <v>58</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I26" s="5"/>
     </row>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="29" spans="4:9">
       <c r="D29" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -3656,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>57</v>
@@ -3665,7 +3665,7 @@
         <v>58</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>60</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="36" spans="4:9">
       <c r="D36" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="4:9">
@@ -3792,7 +3792,7 @@
     </row>
     <row r="43" spans="4:9">
       <c r="D43" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="4:9">
@@ -3883,7 +3883,7 @@
     </row>
     <row r="50" spans="4:9">
       <c r="D50" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="4:9">
@@ -3956,7 +3956,7 @@
     </row>
     <row r="56" spans="4:9">
       <c r="D56" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="4:9">
@@ -4083,7 +4083,7 @@
         <v>111</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>58</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="66" spans="4:9">
       <c r="D66" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="4:9">
@@ -4181,7 +4181,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>118</v>
+        <v>302</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>57</v>
@@ -4190,10 +4190,10 @@
         <v>58</v>
       </c>
       <c r="H70" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I70" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="71" spans="4:9">
@@ -4201,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>57</v>
@@ -4210,10 +4210,10 @@
         <v>58</v>
       </c>
       <c r="H71" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="72" spans="4:9">
@@ -4226,7 +4226,7 @@
     </row>
     <row r="74" spans="4:9">
       <c r="D74" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="4:9">
@@ -4254,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>57</v>
@@ -4263,7 +4263,7 @@
         <v>58</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>60</v>
@@ -4310,7 +4310,7 @@
         <v>4</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>57</v>
@@ -4319,10 +4319,10 @@
         <v>58</v>
       </c>
       <c r="H79" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I79" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="80" spans="4:9">
@@ -4330,7 +4330,7 @@
         <v>5</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>64</v>
@@ -4339,10 +4339,10 @@
         <v>58</v>
       </c>
       <c r="H80" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="81" spans="4:9">
@@ -4350,7 +4350,7 @@
         <v>6</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>57</v>
@@ -4362,7 +4362,7 @@
         <v>110</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="4:9">
@@ -4375,7 +4375,7 @@
     </row>
     <row r="84" spans="4:9">
       <c r="D84" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="4:9">
@@ -4403,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>57</v>
@@ -4412,7 +4412,7 @@
         <v>58</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>60</v>
@@ -4423,19 +4423,19 @@
         <v>2</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H87" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I87" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="88" spans="4:9">
@@ -4443,7 +4443,7 @@
         <v>3</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>64</v>
@@ -4452,7 +4452,7 @@
         <v>58</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I88" s="5"/>
     </row>
@@ -4461,7 +4461,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>57</v>
@@ -4470,10 +4470,10 @@
         <v>58</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="4:9">
@@ -4481,19 +4481,19 @@
         <v>5</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H90" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I90" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="91" spans="4:9">
@@ -4501,19 +4501,19 @@
         <v>6</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H91" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I91" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="92" spans="4:9">
@@ -4526,7 +4526,7 @@
     </row>
     <row r="94" spans="4:9">
       <c r="D94" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="4:9">
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>57</v>
@@ -4563,7 +4563,7 @@
         <v>58</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>60</v>
@@ -4574,7 +4574,7 @@
         <v>2</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>57</v>
@@ -4583,7 +4583,7 @@
         <v>58</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I97" s="5"/>
     </row>
@@ -4601,7 +4601,7 @@
         <v>58</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I98" s="5"/>
     </row>
@@ -4610,7 +4610,7 @@
         <v>4</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>57</v>
@@ -4619,15 +4619,15 @@
         <v>58</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="4:9">
       <c r="D102" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="4:9">
@@ -4693,7 +4693,7 @@
         <v>3</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>26</v>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="112" spans="4:9">
       <c r="D112" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="4:9">
@@ -4792,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>3</v>
@@ -4812,7 +4812,7 @@
         <v>2</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>1</v>
@@ -4821,10 +4821,10 @@
         <v>5</v>
       </c>
       <c r="H115" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="116" spans="4:9">
@@ -4859,7 +4859,7 @@
         <v>4</v>
       </c>
       <c r="H117" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I117" s="5"/>
     </row>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="121" spans="4:9">
       <c r="D121" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122" spans="4:9">
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>3</v>
@@ -4942,7 +4942,7 @@
         <v>4</v>
       </c>
       <c r="H124" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I124" s="5"/>
     </row>
@@ -4954,16 +4954,16 @@
         <v>28</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="4:9">
@@ -4986,7 +4986,7 @@
     </row>
     <row r="129" spans="4:9">
       <c r="D129" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="4:9">
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>3</v>
@@ -5034,7 +5034,7 @@
         <v>2</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>3</v>
@@ -5043,7 +5043,7 @@
         <v>4</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I132" s="5"/>
     </row>
@@ -5052,16 +5052,16 @@
         <v>3</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I133" s="5"/>
     </row>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="135" spans="4:9">
       <c r="D135" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G135" s="3"/>
     </row>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F136" s="3"/>
     </row>
@@ -5093,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F137" s="3"/>
     </row>
@@ -5102,7 +5102,7 @@
         <v>3</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F138" s="3"/>
     </row>
@@ -5111,7 +5111,7 @@
         <v>4</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F139" s="3"/>
     </row>
@@ -5120,7 +5120,7 @@
         <v>5</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F140" s="3"/>
     </row>
@@ -5129,7 +5129,7 @@
         <v>6</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F141" s="3"/>
     </row>
@@ -5138,13 +5138,13 @@
         <v>7</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F142" s="3"/>
     </row>
     <row r="145" spans="4:9">
       <c r="D145" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="4:9">
@@ -5201,7 +5201,7 @@
         <v>4</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I148" s="5" t="s">
         <v>12</v>
@@ -5221,7 +5221,7 @@
         <v>4</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I149" s="5"/>
     </row>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="155" spans="4:9">
       <c r="D155" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="156" spans="4:9">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>3</v>
@@ -5335,10 +5335,10 @@
         <v>25</v>
       </c>
       <c r="G158" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H158" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="H158" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="I158" s="5"/>
     </row>
@@ -5347,19 +5347,19 @@
         <v>3</v>
       </c>
       <c r="E159" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F159" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="G159" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H159" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G159" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H159" s="6" t="s">
+      <c r="I159" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="I159" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="160" spans="4:9">
@@ -5367,22 +5367,22 @@
         <v>4</v>
       </c>
       <c r="E160" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H160" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H160" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="I160" s="5"/>
     </row>
     <row r="163" spans="4:9">
       <c r="D163" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="4:9">
@@ -5410,13 +5410,13 @@
         <v>1</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>0</v>
@@ -5430,16 +5430,16 @@
         <v>2</v>
       </c>
       <c r="E166" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F166" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="G166" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H166" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H166" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="I166" s="5"/>
     </row>
@@ -5448,22 +5448,22 @@
         <v>3</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I167" s="5"/>
     </row>
     <row r="169" spans="4:9">
       <c r="D169" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G169" s="3"/>
     </row>
@@ -5475,7 +5475,7 @@
         <v>43</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="4:9">
@@ -5486,7 +5486,7 @@
         <v>44</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="4:9">
@@ -5497,7 +5497,7 @@
         <v>45</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="4:9">
@@ -5508,7 +5508,7 @@
         <v>46</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="4:9">
@@ -5519,7 +5519,7 @@
         <v>47</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="4:9">
@@ -5530,7 +5530,7 @@
         <v>48</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="4:9">
@@ -5541,12 +5541,12 @@
         <v>49</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="4:9">
       <c r="D179" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="180" spans="4:9">
@@ -5574,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>3</v>
@@ -5600,10 +5600,10 @@
         <v>25</v>
       </c>
       <c r="G182" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H182" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="H182" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="I182" s="5"/>
     </row>
@@ -5612,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>26</v>
@@ -5621,7 +5621,7 @@
         <v>27</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I183" s="5"/>
     </row>
@@ -5630,16 +5630,16 @@
         <v>4</v>
       </c>
       <c r="E184" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H184" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H184" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="I184" s="5"/>
     </row>
@@ -5693,7 +5693,7 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -5701,7 +5701,7 @@
         <v>107</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -5717,7 +5717,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -5725,7 +5725,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -5733,7 +5733,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -5741,7 +5741,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -5749,7 +5749,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="3:4">
@@ -5757,7 +5757,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="3:4">
@@ -5765,7 +5765,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="3:4">
@@ -5773,7 +5773,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -5781,7 +5781,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -5789,7 +5789,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -5797,7 +5797,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -5805,7 +5805,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -5813,7 +5813,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -5821,7 +5821,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -5829,7 +5829,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="3:4">
@@ -5846,7 +5846,7 @@
     </row>
     <row r="27" spans="3:4">
       <c r="C27" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="3:4">
@@ -5854,7 +5854,7 @@
         <v>107</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -5862,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -5870,7 +5870,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="3:4">
@@ -5878,7 +5878,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="3:4">
@@ -5886,7 +5886,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -5894,7 +5894,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="3:4">
@@ -5902,7 +5902,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="3:4">
@@ -5910,7 +5910,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -5918,7 +5918,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -5971,7 +5971,7 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -5979,7 +5979,7 @@
         <v>107</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -5987,7 +5987,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -5995,7 +5995,7 @@
         <v>1001</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -6003,7 +6003,7 @@
         <v>1002</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -6011,7 +6011,7 @@
         <v>1003</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -6019,7 +6019,7 @@
         <v>1004</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -6057,7 +6057,7 @@
         <v>1100</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -6065,7 +6065,7 @@
         <v>1101</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -6073,7 +6073,7 @@
         <v>1102</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -6081,7 +6081,7 @@
         <v>1103</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -6089,7 +6089,7 @@
         <v>1104</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -6127,7 +6127,7 @@
         <v>1200</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="3:4">
@@ -6135,7 +6135,7 @@
         <v>1201</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -6143,7 +6143,7 @@
         <v>1202</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -6151,7 +6151,7 @@
         <v>1203</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="3:4">
@@ -6180,7 +6180,7 @@
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -6188,7 +6188,7 @@
         <v>107</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="3:4">
@@ -6273,8 +6273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6291,25 +6291,25 @@
   <sheetData>
     <row r="3" spans="1:7">
       <c r="C3" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27">
       <c r="A4" s="35"/>
       <c r="C4" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="F4" s="29" t="s">
+      <c r="G4" s="29" t="s">
         <v>272</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6317,16 +6317,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E5" s="30">
         <v>9</v>
       </c>
       <c r="F5" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="38" t="s">
         <v>277</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6334,16 +6334,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" s="30">
         <v>30</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6351,16 +6351,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E7" s="30">
         <v>15</v>
       </c>
       <c r="F7" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="38" t="s">
         <v>297</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6368,16 +6368,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E8" s="30">
         <v>60</v>
       </c>
       <c r="F8" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="38" t="s">
         <v>300</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6385,16 +6385,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E9" s="30">
         <v>3600</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6402,16 +6402,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E10" s="30">
         <v>30</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6419,16 +6419,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E11" s="30">
         <v>180</v>
       </c>
       <c r="F11" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="38" t="s">
         <v>249</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6446,25 +6446,25 @@
     </row>
     <row r="15" spans="1:7">
       <c r="C15" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27">
       <c r="A16" s="35"/>
       <c r="C16" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="G16" s="29" t="s">
         <v>272</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -6472,16 +6472,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E17" s="30">
         <v>9</v>
       </c>
       <c r="F17" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="38" t="s">
         <v>285</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -6489,16 +6489,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E18" s="30">
         <v>60</v>
       </c>
       <c r="F18" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G18" s="38" t="s">
         <v>288</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -6506,16 +6506,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E19" s="30">
         <v>9</v>
       </c>
       <c r="F19" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" s="38" t="s">
         <v>290</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="20" spans="3:7">
@@ -6523,16 +6523,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E20" s="30">
         <v>180</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -6540,16 +6540,16 @@
         <v>5</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E21" s="30">
         <v>5</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="3:7">

--- a/Documents/数据表设计.xlsx
+++ b/Documents/数据表设计.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="302">
   <si>
     <t>序号</t>
   </si>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,9 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DeviceCard(设备卡片表)</t>
-  </si>
-  <si>
     <t>VARCHAR(128)</t>
   </si>
   <si>
@@ -1237,10 +1230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>profileId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>systemOperationLogId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1323,10 +1312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>moduleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1618,10 +1603,6 @@
   </si>
   <si>
     <t>hotInterestLabelStatisticsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>globalInterestLabelId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2601,6 +2582,43 @@
   </si>
   <si>
     <t>chatTotalDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DeviceCard(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备卡片表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>globalInterestLabelId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3215,8 +3233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F176" sqref="F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3236,18 +3254,18 @@
     <row r="2" spans="1:9">
       <c r="D2" s="15"/>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="D3" s="19"/>
       <c r="E3" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1">
@@ -3277,19 +3295,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1">
@@ -3297,16 +3315,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -3315,16 +3333,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -3333,19 +3351,19 @@
         <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1">
@@ -3353,19 +3371,19 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1">
@@ -3373,16 +3391,16 @@
         <v>6</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -3391,16 +3409,16 @@
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -3409,16 +3427,16 @@
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -3427,16 +3445,16 @@
         <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -3445,16 +3463,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -3463,19 +3481,19 @@
         <v>11</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="4:9">
@@ -3488,7 +3506,7 @@
     </row>
     <row r="20" spans="4:9">
       <c r="D20" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="4:9">
@@ -3516,19 +3534,19 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="4:9">
@@ -3536,16 +3554,16 @@
         <v>2</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23" s="5"/>
     </row>
@@ -3557,13 +3575,13 @@
         <v>16</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I24" s="5"/>
     </row>
@@ -3572,19 +3590,19 @@
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="4:9">
@@ -3592,16 +3610,16 @@
         <v>5</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I26" s="5"/>
     </row>
@@ -3623,7 +3641,7 @@
     </row>
     <row r="29" spans="4:9">
       <c r="D29" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -3656,19 +3674,19 @@
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="4:9">
@@ -3676,16 +3694,16 @@
         <v>2</v>
       </c>
       <c r="E32" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="H32" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="I32" s="5"/>
     </row>
@@ -3694,22 +3712,22 @@
         <v>3</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I33" s="5"/>
     </row>
     <row r="36" spans="4:9">
       <c r="D36" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="4:9">
@@ -3737,19 +3755,19 @@
         <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="39" spans="4:9">
@@ -3757,16 +3775,16 @@
         <v>2</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I39" s="5"/>
     </row>
@@ -3775,24 +3793,24 @@
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="43" spans="4:9">
       <c r="D43" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="4:9">
@@ -3820,19 +3838,19 @@
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="4:9">
@@ -3846,10 +3864,10 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I46" s="5"/>
     </row>
@@ -3858,19 +3876,19 @@
         <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="48" spans="4:9">
@@ -3883,7 +3901,7 @@
     </row>
     <row r="50" spans="4:9">
       <c r="D50" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="4:9">
@@ -3911,19 +3929,19 @@
         <v>1</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="53" spans="4:9">
@@ -3931,19 +3949,19 @@
         <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="4:9">
@@ -3956,7 +3974,7 @@
     </row>
     <row r="56" spans="4:9">
       <c r="D56" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="4:9">
@@ -3984,19 +4002,19 @@
         <v>1</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="59" spans="4:9">
@@ -4004,16 +4022,16 @@
         <v>2</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I59" s="5"/>
     </row>
@@ -4022,16 +4040,16 @@
         <v>3</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I60" s="5"/>
     </row>
@@ -4040,19 +4058,19 @@
         <v>4</v>
       </c>
       <c r="E61" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="62" spans="4:9">
@@ -4060,19 +4078,19 @@
         <v>5</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="4:9">
@@ -4080,19 +4098,19 @@
         <v>6</v>
       </c>
       <c r="E63" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="64" spans="4:9">
@@ -4113,7 +4131,7 @@
     </row>
     <row r="66" spans="4:9">
       <c r="D66" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="4:9">
@@ -4141,19 +4159,19 @@
         <v>1</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="69" spans="4:9">
@@ -4161,19 +4179,19 @@
         <v>2</v>
       </c>
       <c r="E69" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="70" spans="4:9">
@@ -4181,19 +4199,19 @@
         <v>3</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="4:9">
@@ -4201,19 +4219,19 @@
         <v>4</v>
       </c>
       <c r="E71" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="72" spans="4:9">
@@ -4226,7 +4244,7 @@
     </row>
     <row r="74" spans="4:9">
       <c r="D74" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="4:9">
@@ -4254,19 +4272,19 @@
         <v>1</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="77" spans="4:9">
@@ -4274,16 +4292,16 @@
         <v>2</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I77" s="5"/>
     </row>
@@ -4292,13 +4310,13 @@
         <v>3</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>18</v>
@@ -4310,19 +4328,19 @@
         <v>4</v>
       </c>
       <c r="E79" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I79" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="80" spans="4:9">
@@ -4330,19 +4348,19 @@
         <v>5</v>
       </c>
       <c r="E80" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="81" spans="4:9">
@@ -4350,19 +4368,19 @@
         <v>6</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="4:9">
@@ -4375,7 +4393,7 @@
     </row>
     <row r="84" spans="4:9">
       <c r="D84" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="4:9">
@@ -4403,19 +4421,19 @@
         <v>1</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I86" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="87" spans="4:9">
@@ -4423,19 +4441,19 @@
         <v>2</v>
       </c>
       <c r="E87" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I87" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="88" spans="4:9">
@@ -4443,16 +4461,16 @@
         <v>3</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I88" s="5"/>
     </row>
@@ -4461,19 +4479,19 @@
         <v>4</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="4:9">
@@ -4481,19 +4499,19 @@
         <v>5</v>
       </c>
       <c r="E90" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I90" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="91" spans="4:9">
@@ -4501,19 +4519,19 @@
         <v>6</v>
       </c>
       <c r="E91" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I91" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="92" spans="4:9">
@@ -4526,7 +4544,7 @@
     </row>
     <row r="94" spans="4:9">
       <c r="D94" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="4:9">
@@ -4554,19 +4572,19 @@
         <v>1</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G96" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I96" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="97" spans="4:9">
@@ -4574,16 +4592,16 @@
         <v>2</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I97" s="5"/>
     </row>
@@ -4592,16 +4610,16 @@
         <v>3</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I98" s="5"/>
     </row>
@@ -4610,24 +4628,24 @@
         <v>4</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="4:9">
       <c r="D102" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="4:9">
@@ -4655,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>3</v>
@@ -4675,16 +4693,16 @@
         <v>2</v>
       </c>
       <c r="E105" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="H105" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="I105" s="5"/>
     </row>
@@ -4693,7 +4711,7 @@
         <v>3</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>26</v>
@@ -4702,7 +4720,7 @@
         <v>27</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I106" s="5"/>
     </row>
@@ -4764,7 +4782,7 @@
     </row>
     <row r="112" spans="4:9">
       <c r="D112" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="4:9">
@@ -4792,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>3</v>
@@ -4812,19 +4830,19 @@
         <v>2</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>5</v>
+        <v>299</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="4:9">
@@ -4859,7 +4877,7 @@
         <v>4</v>
       </c>
       <c r="H117" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I117" s="5"/>
     </row>
@@ -4885,7 +4903,7 @@
     </row>
     <row r="121" spans="4:9">
       <c r="D121" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="122" spans="4:9">
@@ -4913,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>3</v>
@@ -4942,7 +4960,7 @@
         <v>4</v>
       </c>
       <c r="H124" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I124" s="5"/>
     </row>
@@ -4954,16 +4972,16 @@
         <v>28</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="4:9">
@@ -4986,7 +5004,7 @@
     </row>
     <row r="129" spans="4:9">
       <c r="D129" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="4:9">
@@ -5014,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>3</v>
@@ -5034,7 +5052,7 @@
         <v>2</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>3</v>
@@ -5043,7 +5061,7 @@
         <v>4</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I132" s="5"/>
     </row>
@@ -5052,16 +5070,16 @@
         <v>3</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I133" s="5"/>
     </row>
@@ -5075,7 +5093,7 @@
     </row>
     <row r="135" spans="4:9">
       <c r="D135" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G135" s="3"/>
     </row>
@@ -5084,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F136" s="3"/>
     </row>
@@ -5093,7 +5111,7 @@
         <v>2</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F137" s="3"/>
     </row>
@@ -5102,7 +5120,7 @@
         <v>3</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F138" s="3"/>
     </row>
@@ -5111,7 +5129,7 @@
         <v>4</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F139" s="3"/>
     </row>
@@ -5120,7 +5138,7 @@
         <v>5</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F140" s="3"/>
     </row>
@@ -5129,7 +5147,7 @@
         <v>6</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F141" s="3"/>
     </row>
@@ -5138,13 +5156,13 @@
         <v>7</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F142" s="3"/>
     </row>
     <row r="145" spans="4:9">
       <c r="D145" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="146" spans="4:9">
@@ -5172,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>3</v>
@@ -5192,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>1</v>
@@ -5201,7 +5219,7 @@
         <v>4</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I148" s="5" t="s">
         <v>12</v>
@@ -5212,16 +5230,16 @@
         <v>3</v>
       </c>
       <c r="E149" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F149" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I149" s="5"/>
     </row>
@@ -5230,16 +5248,16 @@
         <v>4</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G150" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H150" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="H150" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="I150" s="5"/>
     </row>
@@ -5248,16 +5266,16 @@
         <v>5</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I151" s="5"/>
     </row>
@@ -5266,22 +5284,22 @@
         <v>6</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I152" s="5"/>
     </row>
     <row r="155" spans="4:9">
       <c r="D155" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="156" spans="4:9">
@@ -5309,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>3</v>
@@ -5329,16 +5347,16 @@
         <v>2</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I158" s="5"/>
     </row>
@@ -5347,19 +5365,19 @@
         <v>3</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G159" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H159" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H159" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="I159" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="4:9">
@@ -5367,22 +5385,22 @@
         <v>4</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F160" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H160" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H160" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="I160" s="5"/>
     </row>
     <row r="163" spans="4:9">
       <c r="D163" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="164" spans="4:9">
@@ -5410,13 +5428,13 @@
         <v>1</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>0</v>
@@ -5430,16 +5448,16 @@
         <v>2</v>
       </c>
       <c r="E166" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G166" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H166" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="H166" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="I166" s="5"/>
     </row>
@@ -5448,22 +5466,22 @@
         <v>3</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I167" s="5"/>
     </row>
     <row r="169" spans="4:9">
       <c r="D169" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G169" s="3"/>
     </row>
@@ -5472,10 +5490,10 @@
         <v>1</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="4:9">
@@ -5483,10 +5501,10 @@
         <v>2</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="4:9">
@@ -5494,10 +5512,10 @@
         <v>3</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="4:9">
@@ -5505,10 +5523,10 @@
         <v>4</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="4:9">
@@ -5516,10 +5534,10 @@
         <v>5</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="4:9">
@@ -5527,10 +5545,10 @@
         <v>6</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="4:9">
@@ -5538,15 +5556,15 @@
         <v>7</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179" spans="4:9">
       <c r="D179" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="4:9">
@@ -5574,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>3</v>
@@ -5594,16 +5612,16 @@
         <v>2</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F182" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I182" s="5"/>
     </row>
@@ -5612,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>26</v>
@@ -5621,7 +5639,7 @@
         <v>27</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I183" s="5"/>
     </row>
@@ -5630,16 +5648,16 @@
         <v>4</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F184" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H184" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H184" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="I184" s="5"/>
     </row>
@@ -5693,15 +5711,15 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" s="20" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -5709,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -5717,7 +5735,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -5725,7 +5743,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -5733,7 +5751,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -5741,7 +5759,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -5749,7 +5767,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="3:4">
@@ -5757,7 +5775,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="3:4">
@@ -5765,7 +5783,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="3:4">
@@ -5773,7 +5791,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -5781,7 +5799,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -5789,7 +5807,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -5797,7 +5815,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -5805,7 +5823,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -5813,7 +5831,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -5821,7 +5839,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -5829,7 +5847,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="3:4">
@@ -5846,15 +5864,15 @@
     </row>
     <row r="27" spans="3:4">
       <c r="C27" s="20" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -5862,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -5870,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="3:4">
@@ -5878,7 +5896,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="3:4">
@@ -5886,7 +5904,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -5894,7 +5912,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="3:4">
@@ -5902,7 +5920,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="3:4">
@@ -5910,7 +5928,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -5918,7 +5936,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -5971,15 +5989,15 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" s="20" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -5987,7 +6005,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -5995,7 +6013,7 @@
         <v>1001</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -6003,7 +6021,7 @@
         <v>1002</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -6011,7 +6029,7 @@
         <v>1003</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -6019,7 +6037,7 @@
         <v>1004</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -6057,7 +6075,7 @@
         <v>1100</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -6065,7 +6083,7 @@
         <v>1101</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -6073,7 +6091,7 @@
         <v>1102</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -6081,7 +6099,7 @@
         <v>1103</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -6089,7 +6107,7 @@
         <v>1104</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -6127,7 +6145,7 @@
         <v>1200</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="3:4">
@@ -6135,7 +6153,7 @@
         <v>1201</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -6143,7 +6161,7 @@
         <v>1202</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -6151,7 +6169,7 @@
         <v>1203</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="3:4">
@@ -6180,15 +6198,15 @@
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="20" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="3:4">
@@ -6291,25 +6309,25 @@
   <sheetData>
     <row r="3" spans="1:7">
       <c r="C3" s="33" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27">
       <c r="A4" s="35"/>
       <c r="C4" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>275</v>
-      </c>
       <c r="F4" s="29" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6317,16 +6335,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E5" s="30">
         <v>9</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6334,16 +6352,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E6" s="30">
         <v>30</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6351,16 +6369,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E7" s="30">
         <v>15</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6368,16 +6386,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E8" s="30">
         <v>60</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6385,16 +6403,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E9" s="30">
         <v>3600</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6402,16 +6420,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E10" s="30">
         <v>30</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6419,16 +6437,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E11" s="30">
         <v>180</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6446,25 +6464,25 @@
     </row>
     <row r="15" spans="1:7">
       <c r="C15" s="33" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27">
       <c r="A16" s="35"/>
       <c r="C16" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>275</v>
-      </c>
       <c r="F16" s="29" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -6472,16 +6490,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E17" s="30">
         <v>9</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -6489,16 +6507,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E18" s="30">
         <v>60</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -6506,16 +6524,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E19" s="30">
         <v>9</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="3:7">
@@ -6523,16 +6541,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E20" s="30">
         <v>180</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -6540,16 +6558,16 @@
         <v>5</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E21" s="30">
         <v>5</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="3:7">

--- a/Documents/数据表设计.xlsx
+++ b/Documents/数据表设计.xlsx
@@ -24,7 +24,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D98" authorId="0">
+    <comment ref="D92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="343">
   <si>
     <t>序号</t>
   </si>
@@ -1702,10 +1702,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deviceProfileMapId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要建索引的非自增长字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1733,14 +1729,17 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>映射</t>
+      <t>SessionProfileCollection(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话身份映射</t>
     </r>
     <r>
       <rPr>
@@ -1749,23 +1748,70 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话身份映射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
       <t>ID</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>SessionProfileCollection(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话身份映射</t>
+    <t>操作码</t>
+  </si>
+  <si>
+    <t>操作码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProfileOperationLog(用户操作日志)</t>
+  </si>
+  <si>
+    <r>
+      <t>SystemOperationLog(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统操作日志</t>
     </r>
     <r>
       <rPr>
@@ -1779,65 +1825,1295 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话身份映射</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+    <t>SystemOperationLog(系统操作日志)</t>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到建立WebSocket连接的请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到AlohaRequest请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到设备信息同步请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到统计信息查询请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送业务会话通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话通知响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 进入业务设备池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 退出业务设备池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 匹配成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 同意聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 拒绝聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 结束聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 对象评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 拒绝聊天并退出业务设备池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 对象评价并退出业务设备池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备因为超时被关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统广播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动定时检查超时连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动定时保存数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动定时检查超时Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动定时保存统计数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库操作异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server内部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket连接建立失败（主要是相关资源建立失败）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法JSON请求（字符串不符合JSON规范）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统在线容量达到上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入业务失败，容量达到上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备WebSocket连接超时被关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备响应超时导致连接被释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不当业务请求（请求和当前状态不符，比如还没有进入业务就确认匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法业务请求，设备无权限（如被禁言）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法请求，但由于未知异常导致失败（业务逻辑的失败由JSONRequest处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息同步由于未知原因失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计信息查询由于未知原因失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于未知原因退出业务设备池失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法业务请求，参数错误（业务逻辑的失败由JSONRequest处理并提供原因）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Timer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
+      <t>(s)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发同步消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时时间内收到回应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线设备池超时连接检查定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DaoWrapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保存数据定时器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认匹配定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效Token检测定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到回话绑定通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在指定时间内做出选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象评价定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入印象评价界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在指定时间内完成操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送同步消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定时间内接收到响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备业务空闲定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App退出或者不在前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App处于前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息定时器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方确认超时定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到双方的绑定确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时时间内收到聊天确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方评价超时定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务会话进入双方评价状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方完成印象评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息响应定时器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatTotalDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DeviceCard(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备卡片表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>globalInterestLabelId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OperationCodeDefinition(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作码定义表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>WebSocket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AlohaRequest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AlohaResponse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncResponse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ServerDataSyncRequest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ServerDataSyncResponse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionResponse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广播通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BroadcastNotification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新兴趣卡片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新设备卡片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket连接超时，释放设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲状态超时，释放设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息响应超时，释放设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性更新WebRTC Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性保存数据到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话绑定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对方拒绝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对方同意</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotificationResponse - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认收到</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同意聊天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝聊天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束通话</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评价并退出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OperationCode(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作码表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationCodeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationCodeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SystemModule(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profileId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ProfileOperationLog(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户操作日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Device(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceCardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备卡片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
       <t>ID</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作码</t>
-  </si>
-  <si>
-    <t>操作码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProfileOperationLog(用户操作日志)</t>
-  </si>
-  <si>
-    <r>
-      <t>SystemOperationLog(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统操作日志</t>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未越狱</t>
     </r>
     <r>
       <rPr>
@@ -1846,384 +3122,68 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SystemOperationLog(系统操作日志)</t>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到建立WebSocket连接的请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到AlohaRequest请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到设备信息同步请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到统计信息查询请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送业务会话通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话通知响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 进入业务设备池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 退出业务设备池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 匹配成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 同意聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 拒绝聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 结束聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 对象评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 拒绝聊天并退出业务设备池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 对象评价并退出业务设备池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备因为超时被关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统广播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动定时检查超时连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动定时保存数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动定时检查超时Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动定时保存统计数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库操作异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server内部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebSocket连接建立失败（主要是相关资源建立失败）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法JSON请求（字符串不符合JSON规范）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统在线容量达到上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入业务失败，容量达到上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备WebSocket连接超时被关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备响应超时导致连接被释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不当业务请求（请求和当前状态不符，比如还没有进入业务就确认匹配）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法业务请求，设备无权限（如被禁言）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合法请求，但由于未知异常导致失败（业务逻辑的失败由JSONRequest处理）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备信息同步由于未知原因失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计信息查询由于未知原因失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于未知原因退出业务设备池失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法业务请求，参数错误（业务逻辑的失败由JSONRequest处理并提供原因）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Timer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t xml:space="preserve">  Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>越狱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未激活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>(s)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下发同步消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时时间内收到回应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线设备池超时连接检查定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DaoWrapper</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保存数据定时器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认匹配定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失效Token检测定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到回话绑定通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在指定时间内做出选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印象评价定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入印象评价界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在指定时间内完成操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送同步消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定时间内接收到响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备业务空闲定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App退出或者不在前台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App处于前台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Ping</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>消息定时器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方确认超时定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到双方的绑定确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时时间内收到聊天确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方评价超时定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务会话进入双方评价状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方完成印象评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Json</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>消息响应定时器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chatTotalDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DeviceCard(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备卡片表</t>
+      <t xml:space="preserve">  Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>激活</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效</t>
     </r>
     <r>
       <rPr>
@@ -2232,1198 +3192,191 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>globalInterestLabelId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OperationCodeDefinition(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作码定义表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t xml:space="preserve"> Invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无效</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Random</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>,Interest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Reject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>WebSocket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连接</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>,ConnectionLoss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接故障</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> AlohaRequest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>,NormalEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常结束</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>All</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> AlohaResponse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>,System</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> AppDataSyncResponse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ServerDataSyncRequest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ServerDataSyncResponse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionResponse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广播通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BroadcastNotification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更新兴趣卡片</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更新设备卡片</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebSocket连接超时，释放设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空闲状态超时，释放设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息响应超时，释放设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期性更新WebRTC Session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期性保存数据到数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotification - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话绑定</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotification - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对方拒绝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotification - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对方同意</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择业务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退出业务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotificationResponse - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认收到</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同意聊天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝聊天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结束通话</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评价</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评价并退出</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OperationCode(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作码表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationCodeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationCodeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SystemModule(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>matchCount</t>
+      <t>,User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servlets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionProfileMapId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要级联操作</t>
+  </si>
+  <si>
+    <t>需要级联操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>deviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profileId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ProfileOperationLog(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户操作日志</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DeviceProfileMap(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备虚拟身份映射表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Device(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceCardId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备卡片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未越狱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>越狱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未激活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>激活</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Valid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Invalid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无效</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Random</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,Interest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Reject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,ConnectionLoss</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连接故障</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,NormalEnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常结束</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>All</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,System</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,User</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>servlets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>websocket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sessionProfileMapId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要级联操作</t>
-  </si>
-  <si>
-    <t>需要级联操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4066,10 +4019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I187"/>
+  <dimension ref="A2:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -4095,12 +4048,12 @@
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
       <c r="D3" s="18"/>
       <c r="E3" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
       <c r="D5" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
@@ -4171,7 +4124,7 @@
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="D10" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
@@ -4201,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>53</v>
@@ -4210,7 +4163,7 @@
         <v>54</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>56</v>
@@ -4221,7 +4174,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>53</v>
@@ -4233,7 +4186,7 @@
         <v>55</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
@@ -4262,7 +4215,7 @@
         <v>63</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>54</v>
@@ -4374,7 +4327,7 @@
         <v>187</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>188</v>
@@ -4383,7 +4336,7 @@
         <v>189</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="4:9" ht="17.25" customHeight="1">
@@ -4433,7 +4386,7 @@
         <v>54</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>56</v>
@@ -4443,20 +4396,20 @@
       <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>83</v>
+      <c r="E27" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="4:9" ht="17.25" customHeight="1">
@@ -4464,7 +4417,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>60</v>
@@ -4472,38 +4425,50 @@
       <c r="G28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I28" s="5"/>
+      <c r="H28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="4:9" ht="17.25" customHeight="1">
       <c r="D29" s="4">
         <v>4</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>331</v>
+        <v>196</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H29" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D30" s="4">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="12"/>
+      <c r="G30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="31" spans="4:9" ht="17.25" customHeight="1">
       <c r="D31" s="11"/>
@@ -4513,62 +4478,37 @@
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D32" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="12"/>
-    </row>
     <row r="33" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D34" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D34" s="4">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="4:9" ht="17.25" customHeight="1">
       <c r="D35" s="4">
-        <v>2</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>53</v>
@@ -4577,184 +4517,192 @@
         <v>54</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>343</v>
+        <v>87</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="4:9" ht="17.25" customHeight="1">
       <c r="D36" s="4">
-        <v>3</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D39" s="3" t="s">
-        <v>176</v>
+        <v>89</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D41" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I41" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="42" spans="4:9" ht="17.25" customHeight="1">
       <c r="D42" s="4">
-        <v>2</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I42" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="43" spans="4:9" ht="17.25" customHeight="1">
       <c r="D43" s="4">
-        <v>3</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>90</v>
+        <v>2</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D46" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D44" s="4">
+        <v>3</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="47" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E48" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H48" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I48" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="49" spans="4:9" ht="17.25" customHeight="1">
       <c r="D49" s="4">
-        <v>2</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="50" spans="4:9" ht="17.25" customHeight="1">
       <c r="D50" s="4">
-        <v>3</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>95</v>
+        <v>2</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>53</v>
@@ -4763,10 +4711,10 @@
         <v>54</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>97</v>
+        <v>71</v>
+      </c>
+      <c r="I50" s="44" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="4:9" ht="17.25" customHeight="1">
@@ -4779,7 +4727,7 @@
     </row>
     <row r="53" spans="4:9" ht="17.25" customHeight="1">
       <c r="D53" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="4:9" ht="17.25" customHeight="1">
@@ -4807,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>53</v>
@@ -4816,7 +4764,7 @@
         <v>54</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>56</v>
@@ -4827,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>53</v>
@@ -4836,127 +4784,135 @@
         <v>54</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I56" s="44" t="s">
-        <v>343</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I56" s="5"/>
     </row>
     <row r="57" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="12"/>
+      <c r="D57" s="4">
+        <v>3</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D58" s="4">
+        <v>4</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="59" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D59" s="3" t="s">
-        <v>179</v>
+      <c r="D59" s="4">
+        <v>5</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="4">
+        <v>6</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D63" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D64" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E64" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F64" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H64" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="I64" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D61" s="4">
-        <v>1</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D62" s="4">
-        <v>2</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D63" s="4">
-        <v>3</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D64" s="4">
-        <v>4</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="65" spans="4:9" ht="17.25" customHeight="1">
       <c r="D65" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>53</v>
@@ -4965,139 +4921,131 @@
         <v>54</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="4:9" ht="17.25" customHeight="1">
       <c r="D66" s="4">
-        <v>6</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>104</v>
+        <v>2</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>334</v>
+        <v>71</v>
+      </c>
+      <c r="I66" s="44" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D67" s="11"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="12"/>
+      <c r="D67" s="4">
+        <v>3</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="68" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D68" s="11"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="12"/>
+      <c r="D68" s="4">
+        <v>4</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="69" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D69" s="3" t="s">
-        <v>180</v>
+      <c r="D69" s="4">
+        <v>5</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="12"/>
+    </row>
+    <row r="72" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D72" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D73" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E73" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F73" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H73" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="I73" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D71" s="4">
-        <v>1</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D72" s="4">
-        <v>2</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I72" s="44" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="73" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D73" s="4">
-        <v>3</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="74" spans="4:9" ht="17.25" customHeight="1">
       <c r="D74" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>53</v>
@@ -5106,18 +5054,18 @@
         <v>54</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="4:9" ht="17.25" customHeight="1">
       <c r="D75" s="4">
-        <v>5</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>112</v>
+        <v>2</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>53</v>
@@ -5126,407 +5074,399 @@
         <v>54</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I75" s="5"/>
     </row>
     <row r="76" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D76" s="11"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="12"/>
+      <c r="D76" s="4">
+        <v>3</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D77" s="4">
+        <v>4</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="78" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D78" s="3" t="s">
-        <v>181</v>
+      <c r="D78" s="4">
+        <v>5</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="4">
+        <v>6</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="82" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D82" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D83" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E83" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F83" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H83" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="I83" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D80" s="4">
-        <v>1</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D81" s="4">
-        <v>2</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D82" s="4">
-        <v>3</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D83" s="4">
-        <v>4</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="84" spans="4:9" ht="17.25" customHeight="1">
       <c r="D84" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="4:9" ht="17.25" customHeight="1">
       <c r="D85" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>124</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D86" s="11"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="12"/>
+      <c r="D86" s="4">
+        <v>3</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D87" s="4">
+        <v>4</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="88" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D88" s="3" t="s">
-        <v>186</v>
+      <c r="D88" s="4">
+        <v>5</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="4">
+        <v>6</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="90" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D90" s="11"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="12"/>
+    </row>
+    <row r="92" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D92" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D93" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E93" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F93" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G93" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="H93" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I89" s="8" t="s">
+      <c r="I93" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D90" s="4">
-        <v>1</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="91" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D91" s="4">
-        <v>2</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="92" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D92" s="4">
-        <v>3</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I92" s="5"/>
-    </row>
-    <row r="93" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D93" s="4">
-        <v>4</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="94" spans="4:9" ht="17.25" customHeight="1">
       <c r="D94" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>133</v>
+        <v>339</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="4:9" ht="17.25" customHeight="1">
       <c r="D95" s="4">
-        <v>6</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>136</v>
+        <v>2</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>336</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="I95" s="5"/>
     </row>
     <row r="96" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D96" s="11"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="12"/>
-    </row>
-    <row r="98" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D98" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D99" s="7" t="s">
+      <c r="D96" s="4">
+        <v>3</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D97" s="4">
+        <v>4</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D100" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="101" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D101" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E101" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F101" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G101" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H99" s="9" t="s">
+      <c r="H101" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I99" s="8" t="s">
+      <c r="I101" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="100" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D100" s="4">
-        <v>1</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="101" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D101" s="4">
-        <v>2</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I101" s="5"/>
     </row>
     <row r="102" spans="4:9" ht="17.25" customHeight="1">
       <c r="D102" s="4">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="G102" s="4" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I102" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="4:9" ht="17.25" customHeight="1">
       <c r="D103" s="4">
-        <v>4</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>117</v>
+        <v>2</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>321</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>53</v>
@@ -5535,117 +5475,115 @@
         <v>54</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>138</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D104" s="4">
+        <v>3</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D105" s="4">
+        <v>4</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I105" s="5"/>
     </row>
     <row r="106" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D106" s="3" t="s">
-        <v>325</v>
-      </c>
+      <c r="D106" s="4">
+        <v>5</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" s="5"/>
     </row>
     <row r="107" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="4">
+        <v>6</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D110" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D111" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E111" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F111" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G107" s="7" t="s">
+      <c r="G111" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H107" s="9" t="s">
+      <c r="H111" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I107" s="8" t="s">
+      <c r="I111" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="108" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D108" s="4">
-        <v>1</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D109" s="4">
-        <v>2</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D110" s="4">
-        <v>3</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D111" s="4">
-        <v>4</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I111" s="5"/>
     </row>
     <row r="112" spans="4:9" ht="17.25" customHeight="1">
       <c r="D112" s="4">
-        <v>5</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>3</v>
@@ -5654,119 +5592,119 @@
         <v>4</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="113" spans="4:9" ht="17.25" customHeight="1">
       <c r="D113" s="4">
+        <v>2</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D114" s="4">
+        <v>3</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H114" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" s="5" t="s">
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D115" s="4">
+        <v>4</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H115" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D116" s="4">
+        <v>5</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="G116" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H113" s="6" t="s">
+      <c r="H116" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I113" s="5" t="s">
+      <c r="I116" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D116" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="117" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D117" s="7" t="s">
+    <row r="119" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D119" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="120" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D120" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E120" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F120" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="G120" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H117" s="9" t="s">
+      <c r="H120" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I117" s="8" t="s">
+      <c r="I120" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D118" s="4">
-        <v>1</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D119" s="4">
-        <v>2</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D120" s="4">
-        <v>3</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I120" s="5"/>
     </row>
     <row r="121" spans="4:9" ht="17.25" customHeight="1">
       <c r="D121" s="4">
-        <v>4</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>318</v>
+        <v>1</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>3</v>
@@ -5774,495 +5712,495 @@
       <c r="G121" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H121" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="I121" s="5"/>
+      <c r="H121" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="122" spans="4:9" ht="17.25" customHeight="1">
       <c r="D122" s="4">
-        <v>5</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>315</v>
+        <v>2</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="F122" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H122" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D123" s="4">
+        <v>3</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="124" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D124" s="4">
+        <v>4</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G122" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D125" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="126" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D126" s="7" t="s">
+      <c r="G124" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="127" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D127" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="128" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D128" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E128" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F128" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="G128" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H126" s="9" t="s">
+      <c r="H128" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I126" s="8" t="s">
+      <c r="I128" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="127" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D127" s="4">
-        <v>1</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D128" s="4">
-        <v>2</v>
-      </c>
-      <c r="E128" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H128" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="I128" s="5"/>
     </row>
     <row r="129" spans="4:9" ht="17.25" customHeight="1">
       <c r="D129" s="4">
+        <v>1</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F129" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E129" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="G129" s="4" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="4:9" ht="17.25" customHeight="1">
       <c r="D130" s="4">
-        <v>4</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>318</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D131" s="4">
+        <v>3</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D132" s="11"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="12"/>
     </row>
     <row r="133" spans="4:9" ht="17.25" customHeight="1">
       <c r="D133" s="3" t="s">
-        <v>321</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G133" s="3"/>
     </row>
     <row r="134" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D134" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I134" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F134" s="3"/>
     </row>
     <row r="135" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D135" s="4">
-        <v>1</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F135" s="5" t="s">
+      <c r="D135" s="2">
+        <v>2</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D136" s="2">
         <v>3</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="E136" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D137" s="2">
         <v>4</v>
       </c>
-      <c r="H135" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I135" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D136" s="4">
-        <v>2</v>
-      </c>
-      <c r="E136" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I136" s="5"/>
-    </row>
-    <row r="137" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D137" s="4">
-        <v>3</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I137" s="5"/>
+      <c r="E137" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F137" s="3"/>
     </row>
     <row r="138" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D138" s="11"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="12"/>
+      <c r="D138" s="2">
+        <v>5</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="F138" s="3"/>
     </row>
     <row r="139" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D139" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G139" s="3"/>
+      <c r="D139" s="2">
+        <v>6</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F139" s="3"/>
     </row>
     <row r="140" spans="4:9" ht="17.25" customHeight="1">
       <c r="D140" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D141" s="2">
+    </row>
+    <row r="142" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D142" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D143" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D144" s="4">
+        <v>1</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I144" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D142" s="2">
+    </row>
+    <row r="145" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D145" s="4">
+        <v>2</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D146" s="4">
         <v>3</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D143" s="2">
+      <c r="E146" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G146" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D144" s="2">
+      <c r="H146" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D147" s="4">
+        <v>4</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D148" s="4">
         <v>5</v>
       </c>
-      <c r="E144" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D145" s="2">
+      <c r="E148" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D149" s="4">
         <v>6</v>
       </c>
-      <c r="E145" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D146" s="2">
-        <v>7</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="148" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D148" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="149" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D149" s="7" t="s">
+      <c r="E149" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I149" s="5"/>
+    </row>
+    <row r="152" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D152" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D153" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="E153" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F149" s="8" t="s">
+      <c r="F153" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G149" s="7" t="s">
+      <c r="G153" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H149" s="9" t="s">
+      <c r="H153" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I149" s="8" t="s">
+      <c r="I153" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="150" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D150" s="4">
-        <v>1</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H150" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I150" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D151" s="4">
-        <v>2</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H151" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I151" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D152" s="4">
-        <v>3</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I152" s="5"/>
-    </row>
-    <row r="153" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D153" s="4">
-        <v>4</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H153" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I153" s="5"/>
     </row>
     <row r="154" spans="4:9" ht="17.25" customHeight="1">
       <c r="D154" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I154" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="155" spans="4:9" ht="17.25" customHeight="1">
       <c r="D155" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="I155" s="5"/>
     </row>
-    <row r="158" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D158" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="159" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D159" s="7" t="s">
+    <row r="156" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D156" s="4">
+        <v>3</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D157" s="4">
+        <v>4</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I157" s="5"/>
+    </row>
+    <row r="160" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D160" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D161" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E159" s="8" t="s">
+      <c r="E161" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F159" s="8" t="s">
+      <c r="F161" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="G161" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H159" s="9" t="s">
+      <c r="H161" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I159" s="8" t="s">
+      <c r="I161" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="160" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D160" s="4">
-        <v>1</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H160" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I160" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D161" s="4">
-        <v>2</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H161" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I161" s="5"/>
     </row>
     <row r="162" spans="4:9" ht="17.25" customHeight="1">
       <c r="D162" s="4">
-        <v>3</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>157</v>
@@ -6271,18 +6209,18 @@
         <v>154</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>159</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="4:9" ht="17.25" customHeight="1">
       <c r="D163" s="4">
-        <v>4</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>160</v>
+        <v>2</v>
+      </c>
+      <c r="E163" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>157</v>
@@ -6291,272 +6229,209 @@
         <v>154</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I163" s="5"/>
+    </row>
+    <row r="164" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D164" s="4">
+        <v>3</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I164" s="5"/>
     </row>
     <row r="166" spans="4:9" ht="17.25" customHeight="1">
       <c r="D166" s="3" t="s">
-        <v>184</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G166" s="3"/>
     </row>
     <row r="167" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D167" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H167" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I167" s="8" t="s">
-        <v>22</v>
+      <c r="D167" s="2">
+        <v>1</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D168" s="4">
-        <v>1</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H168" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I168" s="5" t="s">
+      <c r="D168" s="2">
         <v>2</v>
       </c>
+      <c r="E168" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="169" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D169" s="4">
-        <v>2</v>
-      </c>
-      <c r="E169" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I169" s="5"/>
+      <c r="D169" s="2">
+        <v>3</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="170" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D170" s="4">
-        <v>3</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H170" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I170" s="5"/>
+      <c r="D170" s="2">
+        <v>4</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D171" s="2">
+        <v>5</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="172" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D172" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G172" s="3"/>
+      <c r="D172" s="2">
+        <v>6</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="173" spans="4:9" ht="17.25" customHeight="1">
       <c r="D173" s="2">
+        <v>7</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D176" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D177" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D178" s="4">
         <v>1</v>
       </c>
-      <c r="E173" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="174" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D174" s="2">
+      <c r="E178" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I178" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E174" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="175" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D175" s="2">
+    </row>
+    <row r="179" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D179" s="4">
+        <v>2</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D180" s="4">
         <v>3</v>
       </c>
-      <c r="E175" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="176" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D176" s="2">
+      <c r="E180" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H180" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D181" s="4">
         <v>4</v>
       </c>
-      <c r="E176" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="177" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D177" s="2">
-        <v>5</v>
-      </c>
-      <c r="E177" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="178" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D178" s="2">
-        <v>6</v>
-      </c>
-      <c r="E178" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="179" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D179" s="2">
-        <v>7</v>
-      </c>
-      <c r="E179" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="182" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D182" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="183" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D183" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E183" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F183" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H183" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I183" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D184" s="4">
-        <v>1</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H184" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I184" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D185" s="4">
-        <v>2</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G185" s="4" t="s">
+      <c r="E181" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G181" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H185" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I185" s="5"/>
-    </row>
-    <row r="186" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D186" s="4">
-        <v>3</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H186" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I186" s="5"/>
-    </row>
-    <row r="187" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D187" s="4">
-        <v>4</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F187" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H187" s="6" t="s">
+      <c r="H181" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="I187" s="5"/>
+      <c r="I181" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6608,7 +6483,7 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -6616,7 +6491,7 @@
         <v>101</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -6624,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -6632,7 +6507,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -6640,7 +6515,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -6648,7 +6523,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -6656,7 +6531,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -6664,7 +6539,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="3:4">
@@ -6672,7 +6547,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="3:4">
@@ -6680,7 +6555,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="3:4">
@@ -6688,7 +6563,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -6696,7 +6571,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -6704,7 +6579,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -6712,7 +6587,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -6720,7 +6595,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -6728,7 +6603,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -6736,7 +6611,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -6744,7 +6619,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="3:4">
@@ -6761,7 +6636,7 @@
     </row>
     <row r="27" spans="3:4">
       <c r="C27" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="3:4">
@@ -6769,7 +6644,7 @@
         <v>101</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -6777,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -6785,7 +6660,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="3:4">
@@ -6793,7 +6668,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="3:4">
@@ -6801,7 +6676,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -6809,7 +6684,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="3:4">
@@ -6817,7 +6692,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="3:4">
@@ -6825,7 +6700,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -6833,7 +6708,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -6886,7 +6761,7 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -6894,7 +6769,7 @@
         <v>101</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -6902,7 +6777,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -6910,7 +6785,7 @@
         <v>1001</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -6918,7 +6793,7 @@
         <v>1002</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -6926,7 +6801,7 @@
         <v>1003</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -6934,7 +6809,7 @@
         <v>1004</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -6972,7 +6847,7 @@
         <v>1100</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -6980,7 +6855,7 @@
         <v>1101</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -6988,7 +6863,7 @@
         <v>1102</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -6996,7 +6871,7 @@
         <v>1103</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -7004,7 +6879,7 @@
         <v>1104</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -7042,7 +6917,7 @@
         <v>1200</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="3:4">
@@ -7050,7 +6925,7 @@
         <v>1201</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -7058,7 +6933,7 @@
         <v>1202</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -7066,7 +6941,7 @@
         <v>1203</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="3:4">
@@ -7095,7 +6970,7 @@
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -7103,7 +6978,7 @@
         <v>101</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="3:4">
@@ -7206,25 +7081,25 @@
   <sheetData>
     <row r="3" spans="1:7">
       <c r="C3" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27">
       <c r="A4" s="34"/>
       <c r="C4" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>245</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7232,16 +7107,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E5" s="29">
         <v>9</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7249,16 +7124,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E6" s="29">
         <v>30</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7266,16 +7141,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E7" s="29">
         <v>15</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7283,16 +7158,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="29">
         <v>60</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7300,16 +7175,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="29">
         <v>3600</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7317,16 +7192,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E10" s="29">
         <v>30</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7334,16 +7209,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E11" s="29">
         <v>180</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7361,25 +7236,25 @@
     </row>
     <row r="15" spans="1:7">
       <c r="C15" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27">
       <c r="A16" s="34"/>
       <c r="C16" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>245</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -7387,16 +7262,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E17" s="29">
         <v>9</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -7404,16 +7279,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E18" s="29">
         <v>60</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -7421,16 +7296,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E19" s="29">
         <v>9</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="3:7">
@@ -7438,16 +7313,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E20" s="29">
         <v>180</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -7455,16 +7330,16 @@
         <v>5</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E21" s="29">
         <v>5</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="3:7">
@@ -7512,22 +7387,22 @@
   <sheetData>
     <row r="3" spans="1:7">
       <c r="C3" s="38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27">
       <c r="A4" s="34"/>
       <c r="C4" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>284</v>
-      </c>
       <c r="E4" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>283</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7535,10 +7410,10 @@
         <v>1001</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7546,10 +7421,10 @@
         <v>1002</v>
       </c>
       <c r="D6" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>287</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7557,10 +7432,10 @@
         <v>1003</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7568,10 +7443,10 @@
         <v>1004</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7579,10 +7454,10 @@
         <v>1005</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7590,10 +7465,10 @@
         <v>1006</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7601,10 +7476,10 @@
         <v>1007</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7612,10 +7487,10 @@
         <v>1008</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7623,10 +7498,10 @@
         <v>1009</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7634,10 +7509,10 @@
         <v>1010</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7645,10 +7520,10 @@
         <v>1011</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7656,10 +7531,10 @@
         <v>1012</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="3:5">
@@ -7667,10 +7542,10 @@
         <v>1013</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -7678,10 +7553,10 @@
         <v>1014</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -7689,10 +7564,10 @@
         <v>1015</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="3:5">
@@ -7700,10 +7575,10 @@
         <v>1016</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="3:5">
@@ -7711,10 +7586,10 @@
         <v>1017</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="3:5">
@@ -7722,10 +7597,10 @@
         <v>1018</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="3:5">
@@ -7733,10 +7608,10 @@
         <v>1019</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="3:5">
@@ -7744,10 +7619,10 @@
         <v>1020</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="3:5">
@@ -7755,10 +7630,10 @@
         <v>1021</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="3:5">
@@ -7766,10 +7641,10 @@
         <v>1022</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="3:5">
@@ -7782,10 +7657,10 @@
         <v>1100</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="3:5">
@@ -7793,10 +7668,10 @@
         <v>1101</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="3:5">
@@ -7804,10 +7679,10 @@
         <v>1102</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="3:5">
@@ -7815,10 +7690,10 @@
         <v>1103</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -7826,10 +7701,10 @@
         <v>1104</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="3:5">

--- a/Documents/数据表设计.xlsx
+++ b/Documents/数据表设计.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="341">
   <si>
     <t>序号</t>
   </si>
@@ -421,10 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>forbiddenExpiredDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,15 +1040,313 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本次会话中使用的次数，范围</t>
+    <t>systemOperationLogId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录日志的模块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块编码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>moduleId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值定义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemStatisticsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保存时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计项</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计项定义见统计项定义表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>statisticsItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值定义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在线设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机业务设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣业务设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处于聊天状态设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机聊天设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣聊天设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热门标签</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotInterestLabelStatisticsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象标签</t>
     </r>
     <r>
       <rPr>
@@ -1061,12 +1355,1512 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> [1, 2]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemOperationLogId</t>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Profile(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟身份表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GlobalInterestLabel(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全局兴趣标签表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GlobalImpressLabel(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全局印象标签表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>InterestCard(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣卡片表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ImpressCard(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象卡片表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WebRtcSession(WebRtc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SystemStatistics(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统统计信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HotInterestLabelStatistics(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统统计信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SessionRecord(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话记录表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isJailed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否越狱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要建索引的非自增长字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟身份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SessionProfileCollection(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话身份映射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话身份映射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作码</t>
+  </si>
+  <si>
+    <t>操作码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProfileOperationLog(用户操作日志)</t>
+  </si>
+  <si>
+    <r>
+      <t>SystemOperationLog(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统操作日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemOperationLog(系统操作日志)</t>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到建立WebSocket连接的请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到AlohaRequest请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到设备信息同步请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到统计信息查询请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送业务会话通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话通知响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 进入业务设备池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 退出业务设备池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 匹配成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 同意聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 拒绝聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 结束聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 对象评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 拒绝聊天并退出业务设备池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 对象评价并退出业务设备池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备因为超时被关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统广播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动定时检查超时连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动定时保存数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动定时检查超时Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动定时保存统计数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库操作异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server内部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket连接建立失败（主要是相关资源建立失败）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法JSON请求（字符串不符合JSON规范）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统在线容量达到上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入业务失败，容量达到上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备WebSocket连接超时被关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备响应超时导致连接被释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不当业务请求（请求和当前状态不符，比如还没有进入业务就确认匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法业务请求，设备无权限（如被禁言）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法请求，但由于未知异常导致失败（业务逻辑的失败由JSONRequest处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息同步由于未知原因失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计信息查询由于未知原因失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于未知原因退出业务设备池失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法业务请求，参数错误（业务逻辑的失败由JSONRequest处理并提供原因）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Timer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发同步消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时时间内收到回应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线设备池超时连接检查定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DaoWrapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保存数据定时器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认匹配定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效Token检测定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到回话绑定通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在指定时间内做出选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象评价定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入印象评价界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在指定时间内完成操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送同步消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定时间内接收到响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备业务空闲定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App退出或者不在前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App处于前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息定时器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方确认超时定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到双方的绑定确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时时间内收到聊天确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方评价超时定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务会话进入双方评价状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方完成印象评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息响应定时器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatTotalDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DeviceCard(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备卡片表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>globalInterestLabelId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OperationCodeDefinition(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作码定义表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>WebSocket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AlohaRequest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AlohaResponse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncResponse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ServerDataSyncRequest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ServerDataSyncResponse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionResponse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广播通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BroadcastNotification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新兴趣卡片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新设备卡片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket连接超时，释放设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲状态超时，释放设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息响应超时，释放设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性更新WebRTC Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性保存数据到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话绑定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对方拒绝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对方同意</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotificationResponse - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认收到</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同意聊天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝聊天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束通话</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评价并退出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OperationCode(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作码表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationCodeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1074,309 +2868,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录日志的模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块编码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>moduleId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值定义</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>util</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Session</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字符串</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemStatisticsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保存时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statisticsItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统计项</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统计项定义见统计项定义表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statisticsItemDefinitionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>statisticsItem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值定义</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在线设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机业务设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣业务设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>处于聊天状态设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机聊天设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣聊天设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>热门标签</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hotInterestLabelStatisticsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>印象标签</t>
+    <t>moduleNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SystemModule(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统模块</t>
     </r>
     <r>
       <rPr>
@@ -1385,23 +2892,115 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profileId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ProfileOperationLog(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户操作日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Device(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceCardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备卡片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
       <t>ID</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Profile(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟身份表</t>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未越狱</t>
     </r>
     <r>
       <rPr>
@@ -1410,23 +3009,313 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">  Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>越狱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未激活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>激活</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无效</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Random</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,Interest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Reject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,ConnectionLoss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接故障</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,NormalEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常结束</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>All</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,System</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servlets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionProfileMapId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要级联操作</t>
+  </si>
+  <si>
+    <t>需要级联操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unbanDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationCodeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>StatisticsItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计项定义表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
       <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>GlobalInterestLabel(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全局兴趣标签表</t>
+      <t>ImpressLabelMap(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象标签集合表</t>
     </r>
     <r>
       <rPr>
@@ -1441,17 +3330,17 @@
   </si>
   <si>
     <r>
-      <t>GlobalImpressLabel(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全局印象标签表</t>
+      <t>InterestLabelMap(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣标签集合表</t>
     </r>
     <r>
       <rPr>
@@ -1462,1921 +3351,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>InterestCard(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣卡片表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>InterestLabelCollection(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣标签集合表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ImpressCard(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>印象卡片表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ImpressLabelCollection(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>印象标签集合表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>WebRtcSession(WebRtc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SystemStatistics(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统统计信息表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>StatisticsItemDefinition(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统计项定义表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>HotInterestLabelStatistics(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统统计信息表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SessionRecord(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话记录表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isJailed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否越狱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要建索引的非自增长字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟身份</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SessionProfileCollection(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话身份映射</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话身份映射</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作码</t>
-  </si>
-  <si>
-    <t>操作码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProfileOperationLog(用户操作日志)</t>
-  </si>
-  <si>
-    <r>
-      <t>SystemOperationLog(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统操作日志</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SystemOperationLog(系统操作日志)</t>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到建立WebSocket连接的请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到AlohaRequest请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到设备信息同步请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到统计信息查询请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送业务会话通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话通知响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 进入业务设备池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 退出业务设备池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 匹配成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 同意聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 拒绝聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 结束聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 对象评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 拒绝聊天并退出业务设备池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 对象评价并退出业务设备池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备因为超时被关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统广播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动定时检查超时连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动定时保存数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动定时检查超时Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动定时保存统计数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库操作异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server内部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebSocket连接建立失败（主要是相关资源建立失败）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法JSON请求（字符串不符合JSON规范）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统在线容量达到上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入业务失败，容量达到上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备WebSocket连接超时被关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备响应超时导致连接被释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不当业务请求（请求和当前状态不符，比如还没有进入业务就确认匹配）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法业务请求，设备无权限（如被禁言）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合法请求，但由于未知异常导致失败（业务逻辑的失败由JSONRequest处理）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备信息同步由于未知原因失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计信息查询由于未知原因失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于未知原因退出业务设备池失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法业务请求，参数错误（业务逻辑的失败由JSONRequest处理并提供原因）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Timer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下发同步消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时时间内收到回应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线设备池超时连接检查定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DaoWrapper</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保存数据定时器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认匹配定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失效Token检测定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到回话绑定通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在指定时间内做出选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印象评价定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入印象评价界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在指定时间内完成操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送同步消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定时间内接收到响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备业务空闲定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App退出或者不在前台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App处于前台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Ping</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>消息定时器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方确认超时定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到双方的绑定确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时时间内收到聊天确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方评价超时定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务会话进入双方评价状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方完成印象评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Json</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>消息响应定时器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chatTotalDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DeviceCard(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备卡片表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>globalInterestLabelId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OperationCodeDefinition(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作码定义表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>WebSocket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连接</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AlohaRequest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AlohaResponse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncResponse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ServerDataSyncRequest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ServerDataSyncResponse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionResponse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广播通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BroadcastNotification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更新兴趣卡片</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更新设备卡片</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebSocket连接超时，释放设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空闲状态超时，释放设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息响应超时，释放设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期性更新WebRTC Session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期性保存数据到数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotification - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话绑定</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotification - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对方拒绝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotification - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对方同意</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择业务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退出业务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotificationResponse - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认收到</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同意聊天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝聊天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结束通话</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评价</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评价并退出</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OperationCode(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作码表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationCodeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationCodeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SystemModule(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>matchCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profileId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ProfileOperationLog(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户操作日志</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Device(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceCardId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备卡片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未越狱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>越狱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未激活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>激活</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Valid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Invalid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无效</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Random</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,Interest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Reject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,ConnectionLoss</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连接故障</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,NormalEnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常结束</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>All</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,System</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,User</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>servlets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>websocket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sessionProfileMapId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要级联操作</t>
-  </si>
-  <si>
-    <t>需要级联操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4019,10 +3993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I181"/>
+  <dimension ref="A2:I179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -4048,12 +4022,12 @@
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
       <c r="D3" s="18"/>
       <c r="E3" s="15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
       <c r="D5" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
@@ -4124,7 +4098,7 @@
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="D10" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
@@ -4154,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>53</v>
@@ -4163,7 +4137,7 @@
         <v>54</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>56</v>
@@ -4174,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>53</v>
@@ -4186,7 +4160,7 @@
         <v>55</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
@@ -4212,56 +4186,52 @@
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>199</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="D16" s="4">
         <v>5</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="4:9" ht="17.25" customHeight="1">
       <c r="D17" s="4">
         <v>6</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -4270,16 +4240,16 @@
         <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -4288,136 +4258,140 @@
         <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="22" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D22" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D20" s="4">
-        <v>9</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D21" s="4">
-        <v>10</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="24" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D24" s="3" t="s">
-        <v>175</v>
+      <c r="H24" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>22</v>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="4:9" ht="17.25" customHeight="1">
       <c r="D26" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="4:9" ht="17.25" customHeight="1">
       <c r="D27" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>342</v>
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="44" t="s">
-        <v>340</v>
+        <v>67</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="4:9" ht="17.25" customHeight="1">
       <c r="D28" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>60</v>
@@ -4426,18 +4400,18 @@
         <v>54</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="4:9" ht="17.25" customHeight="1">
       <c r="D29" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>60</v>
@@ -4446,28 +4420,28 @@
         <v>54</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="4:9" ht="17.25" customHeight="1">
       <c r="D30" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="4:9" ht="17.25" customHeight="1">
@@ -4480,7 +4454,7 @@
     </row>
     <row r="33" spans="4:9" ht="17.25" customHeight="1">
       <c r="D33" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="4:9" ht="17.25" customHeight="1">
@@ -4508,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>53</v>
@@ -4517,7 +4491,7 @@
         <v>54</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>56</v>
@@ -4528,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>1</v>
@@ -4537,7 +4511,7 @@
         <v>54</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -4546,7 +4520,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>53</v>
@@ -4555,15 +4529,15 @@
         <v>54</v>
       </c>
       <c r="H37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="40" spans="4:9" ht="17.25" customHeight="1">
       <c r="D40" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="4:9" ht="17.25" customHeight="1">
@@ -4591,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>53</v>
@@ -4620,7 +4594,7 @@
         <v>54</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I43" s="5"/>
     </row>
@@ -4629,7 +4603,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>53</v>
@@ -4638,10 +4612,10 @@
         <v>54</v>
       </c>
       <c r="H44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="45" spans="4:9" ht="17.25" customHeight="1">
@@ -4654,7 +4628,7 @@
     </row>
     <row r="47" spans="4:9" ht="17.25" customHeight="1">
       <c r="D47" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="4:9" ht="17.25" customHeight="1">
@@ -4682,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>53</v>
@@ -4691,7 +4665,7 @@
         <v>54</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>56</v>
@@ -4702,7 +4676,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>53</v>
@@ -4711,10 +4685,10 @@
         <v>54</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I50" s="44" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="4:9" ht="17.25" customHeight="1">
@@ -4727,7 +4701,7 @@
     </row>
     <row r="53" spans="4:9" ht="17.25" customHeight="1">
       <c r="D53" s="3" t="s">
-        <v>179</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="4:9" ht="17.25" customHeight="1">
@@ -4755,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>53</v>
@@ -4764,7 +4738,7 @@
         <v>54</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>56</v>
@@ -4775,7 +4749,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>53</v>
@@ -4793,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>53</v>
@@ -4802,7 +4776,7 @@
         <v>54</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I57" s="5"/>
     </row>
@@ -4811,7 +4785,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>53</v>
@@ -4820,10 +4794,10 @@
         <v>54</v>
       </c>
       <c r="H58" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="59" spans="4:9" ht="17.25" customHeight="1">
@@ -4831,7 +4805,7 @@
         <v>5</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>53</v>
@@ -4840,10 +4814,10 @@
         <v>54</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="4:9" ht="17.25" customHeight="1">
@@ -4851,19 +4825,19 @@
         <v>6</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="4:9" ht="17.25" customHeight="1">
@@ -4884,7 +4858,7 @@
     </row>
     <row r="63" spans="4:9" ht="17.25" customHeight="1">
       <c r="D63" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="4:9" ht="17.25" customHeight="1">
@@ -4912,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>53</v>
@@ -4921,7 +4895,7 @@
         <v>54</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>56</v>
@@ -4932,7 +4906,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>53</v>
@@ -4941,10 +4915,10 @@
         <v>54</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I66" s="44" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="4:9" ht="17.25" customHeight="1">
@@ -4952,7 +4926,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>53</v>
@@ -4961,10 +4935,10 @@
         <v>54</v>
       </c>
       <c r="H67" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="68" spans="4:9" ht="17.25" customHeight="1">
@@ -4972,7 +4946,7 @@
         <v>4</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>53</v>
@@ -4981,10 +4955,10 @@
         <v>54</v>
       </c>
       <c r="H68" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="69" spans="4:9" ht="17.25" customHeight="1">
@@ -4992,7 +4966,7 @@
         <v>5</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>53</v>
@@ -5001,10 +4975,10 @@
         <v>54</v>
       </c>
       <c r="H69" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="70" spans="4:9" ht="17.25" customHeight="1">
@@ -5017,7 +4991,7 @@
     </row>
     <row r="72" spans="4:9" ht="17.25" customHeight="1">
       <c r="D72" s="3" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="4:9" ht="17.25" customHeight="1">
@@ -5045,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>53</v>
@@ -5054,7 +5028,7 @@
         <v>54</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>56</v>
@@ -5065,7 +5039,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>53</v>
@@ -5074,7 +5048,7 @@
         <v>54</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I75" s="5"/>
     </row>
@@ -5083,7 +5057,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>53</v>
@@ -5101,7 +5075,7 @@
         <v>4</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>53</v>
@@ -5110,10 +5084,10 @@
         <v>54</v>
       </c>
       <c r="H77" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="78" spans="4:9" ht="17.25" customHeight="1">
@@ -5121,7 +5095,7 @@
         <v>5</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>60</v>
@@ -5130,10 +5104,10 @@
         <v>54</v>
       </c>
       <c r="H78" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I78" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="79" spans="4:9" ht="17.25" customHeight="1">
@@ -5141,7 +5115,7 @@
         <v>6</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>53</v>
@@ -5150,10 +5124,10 @@
         <v>54</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="4:9" ht="17.25" customHeight="1">
@@ -5166,7 +5140,7 @@
     </row>
     <row r="82" spans="4:9" ht="17.25" customHeight="1">
       <c r="D82" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="4:9" ht="17.25" customHeight="1">
@@ -5194,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>53</v>
@@ -5203,7 +5177,7 @@
         <v>54</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>56</v>
@@ -5214,19 +5188,19 @@
         <v>2</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="4:9" ht="17.25" customHeight="1">
@@ -5234,7 +5208,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>60</v>
@@ -5243,7 +5217,7 @@
         <v>54</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I86" s="5"/>
     </row>
@@ -5252,7 +5226,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>53</v>
@@ -5261,10 +5235,10 @@
         <v>54</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="4:9" ht="17.25" customHeight="1">
@@ -5272,19 +5246,19 @@
         <v>5</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H88" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I88" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="89" spans="4:9" ht="17.25" customHeight="1">
@@ -5292,19 +5266,19 @@
         <v>6</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="4:9" ht="17.25" customHeight="1">
@@ -5317,7 +5291,7 @@
     </row>
     <row r="92" spans="4:9" ht="17.25" customHeight="1">
       <c r="D92" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="4:9" ht="17.25" customHeight="1">
@@ -5345,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>53</v>
@@ -5354,7 +5328,7 @@
         <v>54</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>56</v>
@@ -5365,7 +5339,7 @@
         <v>2</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>53</v>
@@ -5374,7 +5348,7 @@
         <v>54</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I95" s="5"/>
     </row>
@@ -5383,7 +5357,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>53</v>
@@ -5392,635 +5366,633 @@
         <v>54</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D97" s="4">
+    <row r="99" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D99" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D100" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E97" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D100" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="101" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D101" s="7" t="s">
+      <c r="H101" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>22</v>
+      <c r="I101" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="4:9" ht="17.25" customHeight="1">
       <c r="D102" s="4">
-        <v>1</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>314</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I102" s="5"/>
     </row>
     <row r="103" spans="4:9" ht="17.25" customHeight="1">
       <c r="D103" s="4">
-        <v>2</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>321</v>
+        <v>3</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="I103" s="5"/>
     </row>
     <row r="104" spans="4:9" ht="17.25" customHeight="1">
       <c r="D104" s="4">
+        <v>4</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F104" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G104" s="4" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="I104" s="5"/>
     </row>
     <row r="105" spans="4:9" ht="17.25" customHeight="1">
       <c r="D105" s="4">
+        <v>5</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D108" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D109" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D110" s="4">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I105" s="5"/>
-    </row>
-    <row r="106" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D106" s="4">
-        <v>5</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" s="5" t="s">
+      <c r="H110" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D111" s="4">
+        <v>2</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F111" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D107" s="4">
-        <v>6</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D110" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="111" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D111" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>22</v>
+      <c r="G111" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="4:9" ht="17.25" customHeight="1">
       <c r="D112" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I112" s="5"/>
     </row>
     <row r="113" spans="4:9" ht="17.25" customHeight="1">
       <c r="D113" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>140</v>
+        <v>309</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>142</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H113" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I113" s="5"/>
     </row>
     <row r="114" spans="4:9" ht="17.25" customHeight="1">
       <c r="D114" s="4">
+        <v>5</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D117" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D118" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" s="4" t="s">
+      <c r="G119" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H114" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I114" s="5"/>
-    </row>
-    <row r="115" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D115" s="4">
+      <c r="H119" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D120" s="4">
+        <v>2</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E115" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H115" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="I115" s="5"/>
-    </row>
-    <row r="116" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D116" s="4">
-        <v>5</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D119" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="120" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D120" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="H120" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I120" s="5"/>
     </row>
     <row r="121" spans="4:9" ht="17.25" customHeight="1">
       <c r="D121" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>315</v>
+        <v>27</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>2</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="4:9" ht="17.25" customHeight="1">
       <c r="D122" s="4">
-        <v>2</v>
-      </c>
-      <c r="E122" s="17" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H122" s="20" t="s">
-        <v>195</v>
+      <c r="H122" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D123" s="4">
+    <row r="125" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D125" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="126" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D126" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D127" s="4">
+        <v>1</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E123" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="124" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D124" s="4">
+      <c r="G127" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G124" s="4" t="s">
+      <c r="H127" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D128" s="4">
+        <v>2</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H124" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I124" s="5"/>
-    </row>
-    <row r="127" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D127" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="128" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D128" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I128" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="H128" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I128" s="5"/>
     </row>
     <row r="129" spans="4:9" ht="17.25" customHeight="1">
       <c r="D129" s="4">
+        <v>3</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F129" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E129" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="G129" s="4" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I129" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D130" s="11"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="12"/>
+    </row>
+    <row r="131" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D131" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D132" s="2">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D133" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D130" s="4">
-        <v>2</v>
-      </c>
-      <c r="E130" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I130" s="5"/>
-    </row>
-    <row r="131" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D131" s="4">
-        <v>3</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I131" s="5"/>
-    </row>
-    <row r="132" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D132" s="11"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="12"/>
-    </row>
-    <row r="133" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D133" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G133" s="3"/>
+      <c r="E133" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F133" s="3"/>
     </row>
     <row r="134" spans="4:9" ht="17.25" customHeight="1">
       <c r="D134" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>335</v>
+        <v>147</v>
       </c>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="4:9" ht="17.25" customHeight="1">
       <c r="D135" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="F135" s="3"/>
     </row>
     <row r="136" spans="4:9" ht="17.25" customHeight="1">
       <c r="D136" s="2">
-        <v>3</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>149</v>
+        <v>5</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>329</v>
       </c>
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="4:9" ht="17.25" customHeight="1">
       <c r="D137" s="2">
-        <v>4</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>336</v>
+        <v>6</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="4:9" ht="17.25" customHeight="1">
       <c r="D138" s="2">
-        <v>5</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D139" s="2">
-        <v>6</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F139" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="140" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D140" s="2">
-        <v>7</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>338</v>
+      <c r="D140" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D141" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D142" s="3" t="s">
-        <v>182</v>
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D143" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>22</v>
+      <c r="D143" s="4">
+        <v>2</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I143" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="4:9" ht="17.25" customHeight="1">
       <c r="D144" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I144" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I144" s="5"/>
     </row>
     <row r="145" spans="4:9" ht="17.25" customHeight="1">
       <c r="D145" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I145" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I145" s="5"/>
     </row>
     <row r="146" spans="4:9" ht="17.25" customHeight="1">
       <c r="D146" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="I146" s="5"/>
     </row>
     <row r="147" spans="4:9" ht="17.25" customHeight="1">
       <c r="D147" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>1</v>
@@ -6029,409 +6001,373 @@
         <v>34</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I147" s="5"/>
     </row>
-    <row r="148" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D148" s="4">
-        <v>5</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H148" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I148" s="5"/>
-    </row>
-    <row r="149" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D149" s="4">
-        <v>6</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F149" s="5" t="s">
+    <row r="150" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D150" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D151" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D152" s="4">
         <v>1</v>
       </c>
-      <c r="G149" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I149" s="5"/>
-    </row>
-    <row r="152" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D152" s="3" t="s">
-        <v>183</v>
+      <c r="E152" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D153" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H153" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I153" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="D153" s="4">
+        <v>2</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I153" s="5"/>
     </row>
     <row r="154" spans="4:9" ht="17.25" customHeight="1">
       <c r="D154" s="4">
-        <v>1</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>153</v>
+        <v>3</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>337</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="4:9" ht="17.25" customHeight="1">
       <c r="D155" s="4">
+        <v>4</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I155" s="5"/>
+    </row>
+    <row r="158" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D158" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="159" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D159" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D160" s="4">
+        <v>1</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I160" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E155" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G155" s="4" t="s">
+    </row>
+    <row r="161" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D161" s="4">
+        <v>2</v>
+      </c>
+      <c r="E161" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="H155" s="6" t="s">
+      <c r="F161" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I155" s="5"/>
-    </row>
-    <row r="156" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D156" s="4">
-        <v>3</v>
-      </c>
-      <c r="E156" s="16" t="s">
+      <c r="G161" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H161" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F156" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H156" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I156" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="157" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D157" s="4">
-        <v>4</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H157" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I157" s="5"/>
-    </row>
-    <row r="160" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D160" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="161" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D161" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I161" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="I161" s="5"/>
     </row>
     <row r="162" spans="4:9" ht="17.25" customHeight="1">
       <c r="D162" s="4">
+        <v>3</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F162" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E162" s="5" t="s">
+      <c r="G162" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I162" s="5"/>
+    </row>
+    <row r="164" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D164" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F162" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H162" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I162" s="5" t="s">
+      <c r="G164" s="3"/>
+    </row>
+    <row r="165" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D165" s="2">
+        <v>1</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D166" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D163" s="4">
-        <v>2</v>
-      </c>
-      <c r="E163" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I163" s="5"/>
-    </row>
-    <row r="164" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D164" s="4">
-        <v>3</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H164" s="6" t="s">
+      <c r="E166" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I164" s="5"/>
-    </row>
-    <row r="166" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D166" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G166" s="3"/>
     </row>
     <row r="167" spans="4:9" ht="17.25" customHeight="1">
       <c r="D167" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="4:9" ht="17.25" customHeight="1">
       <c r="D168" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="4:9" ht="17.25" customHeight="1">
       <c r="D169" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="4:9" ht="17.25" customHeight="1">
       <c r="D170" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="4:9" ht="17.25" customHeight="1">
       <c r="D171" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F171" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D174" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="175" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D175" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I175" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D176" s="4">
+        <v>1</v>
+      </c>
+      <c r="E176" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D172" s="2">
-        <v>6</v>
-      </c>
-      <c r="E172" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D173" s="2">
-        <v>7</v>
-      </c>
-      <c r="E173" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="176" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D176" s="3" t="s">
-        <v>185</v>
+      <c r="F176" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D177" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F177" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H177" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I177" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="D177" s="4">
+        <v>2</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H177" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I177" s="5"/>
     </row>
     <row r="178" spans="4:9" ht="17.25" customHeight="1">
       <c r="D178" s="4">
-        <v>1</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>173</v>
+        <v>3</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I178" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="I178" s="5"/>
     </row>
     <row r="179" spans="4:9" ht="17.25" customHeight="1">
       <c r="D179" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I179" s="5"/>
-    </row>
-    <row r="180" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D180" s="4">
-        <v>3</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H180" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I180" s="5"/>
-    </row>
-    <row r="181" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D181" s="4">
-        <v>4</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H181" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I181" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6483,15 +6419,15 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" s="19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -6499,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -6507,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -6515,7 +6451,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -6523,7 +6459,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -6531,7 +6467,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -6539,7 +6475,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="3:4">
@@ -6547,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="3:4">
@@ -6555,7 +6491,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="3:4">
@@ -6563,7 +6499,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -6571,7 +6507,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -6579,7 +6515,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -6587,7 +6523,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -6595,7 +6531,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -6603,7 +6539,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -6611,7 +6547,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -6619,7 +6555,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="3:4">
@@ -6636,15 +6572,15 @@
     </row>
     <row r="27" spans="3:4">
       <c r="C27" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -6652,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -6660,7 +6596,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="3:4">
@@ -6668,7 +6604,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="3:4">
@@ -6676,7 +6612,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -6684,7 +6620,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="3:4">
@@ -6692,7 +6628,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="3:4">
@@ -6700,7 +6636,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -6708,7 +6644,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -6761,15 +6697,15 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" s="19" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -6777,7 +6713,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -6785,7 +6721,7 @@
         <v>1001</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -6793,7 +6729,7 @@
         <v>1002</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -6801,7 +6737,7 @@
         <v>1003</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -6809,7 +6745,7 @@
         <v>1004</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -6847,7 +6783,7 @@
         <v>1100</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -6855,7 +6791,7 @@
         <v>1101</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -6863,7 +6799,7 @@
         <v>1102</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -6871,7 +6807,7 @@
         <v>1103</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -6879,7 +6815,7 @@
         <v>1104</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -6917,7 +6853,7 @@
         <v>1200</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="3:4">
@@ -6925,7 +6861,7 @@
         <v>1201</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -6933,7 +6869,7 @@
         <v>1202</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -6941,7 +6877,7 @@
         <v>1203</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="3:4">
@@ -6970,15 +6906,15 @@
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="19" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="3:4">
@@ -7081,25 +7017,25 @@
   <sheetData>
     <row r="3" spans="1:7">
       <c r="C3" s="32" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27">
       <c r="A4" s="34"/>
       <c r="C4" s="28" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7107,16 +7043,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E5" s="29">
         <v>9</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7124,16 +7060,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E6" s="29">
         <v>30</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7141,16 +7077,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E7" s="29">
         <v>15</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7158,16 +7094,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E8" s="29">
         <v>60</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7175,16 +7111,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E9" s="29">
         <v>3600</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7192,16 +7128,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E10" s="29">
         <v>30</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7209,16 +7145,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E11" s="29">
         <v>180</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7236,25 +7172,25 @@
     </row>
     <row r="15" spans="1:7">
       <c r="C15" s="32" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27">
       <c r="A16" s="34"/>
       <c r="C16" s="28" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -7262,16 +7198,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E17" s="29">
         <v>9</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -7279,16 +7215,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E18" s="29">
         <v>60</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -7296,16 +7232,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E19" s="29">
         <v>9</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="3:7">
@@ -7313,16 +7249,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E20" s="29">
         <v>180</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -7330,16 +7266,16 @@
         <v>5</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E21" s="29">
         <v>5</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="3:7">
@@ -7387,22 +7323,22 @@
   <sheetData>
     <row r="3" spans="1:7">
       <c r="C3" s="38" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27">
       <c r="A4" s="34"/>
       <c r="C4" s="26" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7410,10 +7346,10 @@
         <v>1001</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7421,10 +7357,10 @@
         <v>1002</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7432,10 +7368,10 @@
         <v>1003</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7443,10 +7379,10 @@
         <v>1004</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7454,10 +7390,10 @@
         <v>1005</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7465,10 +7401,10 @@
         <v>1006</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7476,10 +7412,10 @@
         <v>1007</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7487,10 +7423,10 @@
         <v>1008</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7498,10 +7434,10 @@
         <v>1009</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7509,10 +7445,10 @@
         <v>1010</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7520,10 +7456,10 @@
         <v>1011</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7531,10 +7467,10 @@
         <v>1012</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="3:5">
@@ -7542,10 +7478,10 @@
         <v>1013</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -7553,10 +7489,10 @@
         <v>1014</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -7564,10 +7500,10 @@
         <v>1015</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="3:5">
@@ -7575,10 +7511,10 @@
         <v>1016</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="3:5">
@@ -7586,10 +7522,10 @@
         <v>1017</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="3:5">
@@ -7597,10 +7533,10 @@
         <v>1018</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="3:5">
@@ -7608,10 +7544,10 @@
         <v>1019</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="3:5">
@@ -7619,10 +7555,10 @@
         <v>1020</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="3:5">
@@ -7630,10 +7566,10 @@
         <v>1021</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="3:5">
@@ -7641,10 +7577,10 @@
         <v>1022</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="3:5">
@@ -7657,10 +7593,10 @@
         <v>1100</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="3:5">
@@ -7668,10 +7604,10 @@
         <v>1101</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="3:5">
@@ -7679,10 +7615,10 @@
         <v>1102</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="3:5">
@@ -7690,10 +7626,10 @@
         <v>1103</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -7701,10 +7637,10 @@
         <v>1104</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="3:5">

--- a/Documents/数据表设计.xlsx
+++ b/Documents/数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RenHai" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="365">
   <si>
     <t>序号</t>
   </si>
@@ -2124,6 +2124,51 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionResponse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广播通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BroadcastNotification</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>App</t>
     </r>
     <r>
@@ -2134,6 +2179,1117 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新兴趣卡片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新设备卡片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket连接超时，释放设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲状态超时，释放设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息响应超时，释放设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性更新WebRTC Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性保存数据到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话绑定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对方拒绝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对方同意</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotificationResponse - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认收到</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同意聊天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝聊天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束通话</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评价并退出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OperationCode(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作码表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationCodeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SystemModule(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profileId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ProfileOperationLog(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户操作日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Device(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceCardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备卡片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未越狱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>越狱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未激活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>激活</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无效</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Random</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,Interest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Reject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,ConnectionLoss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接故障</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,NormalEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常结束</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>All</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,System</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servlets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionProfileMapId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要级联操作</t>
+  </si>
+  <si>
+    <t>需要级联操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unbanDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationCodeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ImpressLabelMap(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象标签集合表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>InterestLabelMap(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣标签集合表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ChatConfirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双方确认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,VedioChat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频通话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,Assess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SessionProfileMap(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话身份映射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>moduleNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值定义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assessedCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>labelOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interestLabelName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressLabelName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>StatisticsItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计项定义表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>数据同步响应</t>
     </r>
     <r>
@@ -2145,6 +3301,7 @@
       </rPr>
       <t xml:space="preserve"> AppDataSyncResponse</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2169,6 +3326,7 @@
       </rPr>
       <t xml:space="preserve"> ServerDataSyncRequest</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2193,1162 +3351,82 @@
       </rPr>
       <t xml:space="preserve"> ServerDataSyncResponse</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionResponse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广播通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BroadcastNotification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更新兴趣卡片</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更新设备卡片</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebSocket连接超时，释放设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空闲状态超时，释放设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息响应超时，释放设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期性更新WebRTC Session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期性保存数据到数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotification - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话绑定</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotification - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对方拒绝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotification - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对方同意</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择业务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退出业务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotificationResponse - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认收到</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同意聊天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝聊天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结束通话</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评价</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评价并退出</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OperationCode(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作码表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationCodeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SystemModule(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>matchCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profileId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ProfileOperationLog(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户操作日志</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Device(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceCardId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备卡片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未越狱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>越狱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未激活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>激活</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Valid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Invalid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无效</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Random</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,Interest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Reject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,ConnectionLoss</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连接故障</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,NormalEnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常结束</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>All</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,System</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,User</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>servlets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>websocket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sessionProfileMapId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要级联操作</t>
-  </si>
-  <si>
-    <t>需要级联操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unbanDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationCodeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statisticsItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>StatisticsItem(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统计项定义表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ImpressLabelMap(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>印象标签集合表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>InterestLabelMap(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣标签集合表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ChatConfirm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双方确认</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,VedioChat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视频通话</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,Assess</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对象评价</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SessionProfileMap(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话身份映射</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>moduleNo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值定义</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assessedCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>labelOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interestLabelName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>impressLabelName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetupWebScoket</t>
+  </si>
+  <si>
+    <t>AlohaRequest</t>
+  </si>
+  <si>
+    <t>AlohaResponse</t>
+  </si>
+  <si>
+    <t>AppDataSyncRequest</t>
+  </si>
+  <si>
+    <t>AppDataSyncResponse</t>
+  </si>
+  <si>
+    <t>ServerDataSyncRequest</t>
+  </si>
+  <si>
+    <t>ServerDataSyncResponse</t>
+  </si>
+  <si>
+    <t>NotificationSessionBounded</t>
+  </si>
+  <si>
+    <t>NotificationOthersideRejected</t>
+  </si>
+  <si>
+    <t>NotificationOthersideAgreed</t>
+  </si>
+  <si>
+    <t>NotificationResponse</t>
+  </si>
+  <si>
+    <t>BusinessRequestEnterPool</t>
+  </si>
+  <si>
+    <t>BusinessRequestLeavePool</t>
+  </si>
+  <si>
+    <t>BusinessRequestAgreeChat</t>
+  </si>
+  <si>
+    <t>BusinessRequestRejectChat</t>
+  </si>
+  <si>
+    <t>BusinessRequestEndChat</t>
+  </si>
+  <si>
+    <t>BusinessRequestAssessContinue</t>
+  </si>
+  <si>
+    <t>BusinessRequestAssessQuit</t>
+  </si>
+  <si>
+    <t>BusinessResponse</t>
+  </si>
+  <si>
+    <t>BroadcastNotification</t>
+  </si>
+  <si>
+    <t>WebsocketTimeout</t>
+  </si>
+  <si>
+    <t>DeviceInIdleTimeout</t>
+  </si>
+  <si>
+    <t>SyncMessageTimeout</t>
+  </si>
+  <si>
+    <t>FlushToDB</t>
+  </si>
+  <si>
+    <t>UpdateWebRTCSession</t>
   </si>
 </sst>
 </file>
@@ -3995,8 +4073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -4027,7 +4105,7 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
       <c r="D5" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
@@ -4136,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>52</v>
@@ -4145,7 +4223,7 @@
         <v>53</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>55</v>
@@ -4156,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>52</v>
@@ -4168,7 +4246,7 @@
         <v>54</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
@@ -4278,7 +4356,7 @@
         <v>176</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="4:9" ht="17.25" customHeight="1">
@@ -4339,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>52</v>
@@ -4351,7 +4429,7 @@
         <v>54</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="4:9" ht="17.25" customHeight="1">
@@ -4379,7 +4457,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>59</v>
@@ -4437,7 +4515,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>185</v>
@@ -4449,7 +4527,7 @@
         <v>183</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="4:9" ht="17.25" customHeight="1">
@@ -4510,7 +4588,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>1</v>
@@ -4593,7 +4671,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>1</v>
@@ -4696,7 +4774,7 @@
         <v>69</v>
       </c>
       <c r="I51" s="44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="4:9" ht="17.25" customHeight="1">
@@ -4709,7 +4787,7 @@
     </row>
     <row r="54" spans="4:9" ht="17.25" customHeight="1">
       <c r="D54" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="4:9" ht="17.25" customHeight="1">
@@ -4787,7 +4865,7 @@
         <v>85</v>
       </c>
       <c r="I58" s="44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="4:9" ht="17.25" customHeight="1">
@@ -4795,7 +4873,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>52</v>
@@ -4815,7 +4893,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>52</v>
@@ -4847,7 +4925,7 @@
         <v>101</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="4:9" ht="17.25" customHeight="1">
@@ -4928,7 +5006,7 @@
         <v>69</v>
       </c>
       <c r="I67" s="44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="4:9" ht="17.25" customHeight="1">
@@ -5001,7 +5079,7 @@
     </row>
     <row r="73" spans="4:9" ht="17.25" customHeight="1">
       <c r="D73" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="4:9" ht="17.25" customHeight="1">
@@ -5079,7 +5157,7 @@
         <v>16</v>
       </c>
       <c r="I77" s="44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="4:9" ht="17.25" customHeight="1">
@@ -5087,7 +5165,7 @@
         <v>4</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>52</v>
@@ -5212,7 +5290,7 @@
         <v>123</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="4:9" ht="17.25" customHeight="1">
@@ -5270,7 +5348,7 @@
         <v>129</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="4:9" ht="17.25" customHeight="1">
@@ -5290,7 +5368,7 @@
         <v>131</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="4:9" ht="17.25" customHeight="1">
@@ -5303,7 +5381,7 @@
     </row>
     <row r="93" spans="4:9" ht="17.25" customHeight="1">
       <c r="D93" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="4:9" ht="17.25" customHeight="1">
@@ -5331,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>52</v>
@@ -5384,7 +5462,7 @@
     </row>
     <row r="100" spans="4:9" ht="17.25" customHeight="1">
       <c r="D100" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="4:9" ht="17.25" customHeight="1">
@@ -5432,7 +5510,7 @@
         <v>2</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>24</v>
@@ -5468,7 +5546,7 @@
         <v>4</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>3</v>
@@ -5589,7 +5667,7 @@
         <v>4</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>3</v>
@@ -5607,7 +5685,7 @@
         <v>5</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>1</v>
@@ -5624,7 +5702,7 @@
     </row>
     <row r="118" spans="4:9" ht="17.25" customHeight="1">
       <c r="D118" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" spans="4:9" ht="17.25" customHeight="1">
@@ -5652,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>3</v>
@@ -5702,7 +5780,7 @@
         <v>27</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" spans="4:9" ht="17.25" customHeight="1">
@@ -5725,7 +5803,7 @@
     </row>
     <row r="126" spans="4:9" ht="17.25" customHeight="1">
       <c r="D126" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="4:9" ht="17.25" customHeight="1">
@@ -5753,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>3</v>
@@ -5773,7 +5851,7 @@
         <v>2</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>3</v>
@@ -5814,7 +5892,7 @@
     </row>
     <row r="132" spans="3:9" ht="17.25" customHeight="1">
       <c r="D132" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G132" s="3"/>
     </row>
@@ -5823,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F133" s="3"/>
     </row>
@@ -5850,7 +5928,7 @@
         <v>4</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F136" s="3"/>
     </row>
@@ -5859,7 +5937,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F137" s="3"/>
     </row>
@@ -5877,7 +5955,7 @@
         <v>7</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="17.25" customHeight="1">
@@ -6085,7 +6163,7 @@
         <v>3</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>149</v>
@@ -6120,7 +6198,7 @@
     </row>
     <row r="159" spans="4:9" ht="17.25" customHeight="1">
       <c r="D159" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="160" spans="4:9" ht="17.25" customHeight="1">
@@ -6148,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>149</v>
@@ -7319,8 +7397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:E32"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7358,10 +7436,13 @@
         <v>1001</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>272</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7369,10 +7450,13 @@
         <v>1002</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>273</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7385,6 +7469,9 @@
       <c r="E7" s="30" t="s">
         <v>274</v>
       </c>
+      <c r="F7" s="32" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" s="29">
@@ -7394,7 +7481,10 @@
         <v>271</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7405,7 +7495,7 @@
         <v>271</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7416,7 +7506,7 @@
         <v>271</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7427,7 +7517,10 @@
         <v>270</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>275</v>
+        <v>337</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7438,7 +7531,10 @@
         <v>271</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>276</v>
+        <v>338</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7446,10 +7542,13 @@
         <v>1009</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>277</v>
+        <v>339</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7457,10 +7556,13 @@
         <v>1010</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7468,10 +7570,13 @@
         <v>1011</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7479,13 +7584,16 @@
         <v>1012</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
+        <v>287</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
       <c r="C17" s="29">
         <v>1013</v>
       </c>
@@ -7493,10 +7601,13 @@
         <v>271</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
+        <v>290</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" s="29">
         <v>1014</v>
       </c>
@@ -7504,10 +7615,13 @@
         <v>271</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
+        <v>288</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
       <c r="C19" s="29">
         <v>1015</v>
       </c>
@@ -7515,10 +7629,13 @@
         <v>271</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
+        <v>289</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
       <c r="C20" s="29">
         <v>1016</v>
       </c>
@@ -7526,10 +7643,13 @@
         <v>271</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
+        <v>291</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
       <c r="C21" s="29">
         <v>1017</v>
       </c>
@@ -7537,10 +7657,13 @@
         <v>271</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
+        <v>292</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
       <c r="C22" s="29">
         <v>1018</v>
       </c>
@@ -7548,10 +7671,13 @@
         <v>271</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
+        <v>293</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
       <c r="C23" s="29">
         <v>1019</v>
       </c>
@@ -7559,10 +7685,13 @@
         <v>271</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
+        <v>294</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" s="29">
         <v>1020</v>
       </c>
@@ -7570,10 +7699,13 @@
         <v>271</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
+        <v>295</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" s="29">
         <v>1021</v>
       </c>
@@ -7581,10 +7713,13 @@
         <v>270</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
+        <v>275</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
       <c r="C26" s="29">
         <v>1022</v>
       </c>
@@ -7592,15 +7727,18 @@
         <v>270</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
+        <v>276</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" s="29"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:6">
       <c r="C28" s="29">
         <v>1100</v>
       </c>
@@ -7608,10 +7746,13 @@
         <v>270</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
+        <v>280</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
       <c r="C29" s="29">
         <v>1101</v>
       </c>
@@ -7619,10 +7760,13 @@
         <v>270</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
+        <v>281</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
       <c r="C30" s="29">
         <v>1102</v>
       </c>
@@ -7630,10 +7774,13 @@
         <v>270</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
+        <v>282</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
       <c r="C31" s="29">
         <v>1103</v>
       </c>
@@ -7641,10 +7788,13 @@
         <v>270</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5">
+        <v>284</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
       <c r="C32" s="29">
         <v>1104</v>
       </c>
@@ -7652,7 +7802,10 @@
         <v>270</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>286</v>
+        <v>283</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="3:5">

--- a/Documents/数据表设计.xlsx
+++ b/Documents/数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="RenHai" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D93" authorId="0">
+    <comment ref="D95" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="372">
   <si>
     <t>序号</t>
   </si>
@@ -939,15 +939,2513 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>startTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
+    <t>endStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemOperationLogId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录日志的模块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块编码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemStatisticsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保存时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计项</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计项定义见统计项定义表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>statisticsItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值定义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在线设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机业务设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣业务设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处于聊天状态设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机聊天设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣聊天设备数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热门标签</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotInterestLabelStatisticsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Profile(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟身份表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GlobalInterestLabel(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全局兴趣标签表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GlobalImpressLabel(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全局印象标签表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>InterestCard(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣卡片表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ImpressCard(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象卡片表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WebRtcSession(WebRtc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SystemStatistics(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统统计信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HotInterestLabelStatistics(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统统计信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SessionRecord(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话记录表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isJailed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否越狱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要建索引的非自增长字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟身份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话身份映射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作码</t>
+  </si>
+  <si>
+    <t>操作码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProfileOperationLog(用户操作日志)</t>
+  </si>
+  <si>
+    <r>
+      <t>SystemOperationLog(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统操作日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemOperationLog(系统操作日志)</t>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到建立WebSocket连接的请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到AlohaRequest请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到设备信息同步请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到统计信息查询请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送业务会话通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话通知响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 进入业务设备池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 退出业务设备池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 匹配成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 同意聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 拒绝聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 结束聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 对象评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 拒绝聊天并退出业务设备池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到业务会话请求 - 对象评价并退出业务设备池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备因为超时被关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统广播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动定时检查超时连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动定时保存数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动定时检查超时Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动定时保存统计数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库操作异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server内部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket连接建立失败（主要是相关资源建立失败）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法JSON请求（字符串不符合JSON规范）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统在线容量达到上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入业务失败，容量达到上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备WebSocket连接超时被关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备响应超时导致连接被释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不当业务请求（请求和当前状态不符，比如还没有进入业务就确认匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法业务请求，设备无权限（如被禁言）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法请求，但由于未知异常导致失败（业务逻辑的失败由JSONRequest处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息同步由于未知原因失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计信息查询由于未知原因失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于未知原因退出业务设备池失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法业务请求，参数错误（业务逻辑的失败由JSONRequest处理并提供原因）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Timer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发同步消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时时间内收到回应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线设备池超时连接检查定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DaoWrapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保存数据定时器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认匹配定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效Token检测定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到回话绑定通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在指定时间内做出选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象评价定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入印象评价界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在指定时间内完成操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送同步消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定时间内接收到响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备业务空闲定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App退出或者不在前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App处于前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息定时器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方确认超时定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到双方的绑定确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时时间内收到聊天确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方评价超时定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务会话进入双方评价状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方完成印象评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息响应定时器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatTotalDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DeviceCard(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备卡片表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>globalInterestLabelId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OperationCodeDefinition(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作码定义表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>WebSocket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AlohaRequest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AlohaResponse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionResponse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广播通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BroadcastNotification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新兴趣卡片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新设备卡片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket连接超时，释放设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲状态超时，释放设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息响应超时，释放设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性更新WebRTC Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性保存数据到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话绑定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对方拒绝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotification - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对方同意</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话通知响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionNotificationResponse - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认收到</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同意聊天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝聊天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束通话</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务会话请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BusinessSessionRequest - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评价并退出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OperationCode(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作码表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationCodeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SystemModule(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profileId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ProfileOperationLog(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户操作日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Device(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceCardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备卡片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未越狱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>越狱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未激活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>激活</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无效</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Random</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,Interest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Reject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,ConnectionLoss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接故障</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,NormalEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常结束</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>All</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,System</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servlets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionProfileMapId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要级联操作</t>
+  </si>
+  <si>
+    <t>需要级联操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unbanDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationCodeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ImpressLabelMap(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象标签集合表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>InterestLabelMap(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴趣标签集合表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ChatConfirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双方确认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,VedioChat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频通话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,Assess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SessionProfileMap(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话身份映射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>moduleNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值定义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assessedCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>labelOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interestLabelName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressLabelName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>StatisticsItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计项定义表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AppDataSyncResponse</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ServerDataSyncRequest</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据同步响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ServerDataSyncResponse</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetupWebScoket</t>
+  </si>
+  <si>
+    <t>AlohaRequest</t>
+  </si>
+  <si>
+    <t>AlohaResponse</t>
+  </si>
+  <si>
+    <t>AppDataSyncRequest</t>
+  </si>
+  <si>
+    <t>AppDataSyncResponse</t>
+  </si>
+  <si>
+    <t>ServerDataSyncRequest</t>
+  </si>
+  <si>
+    <t>ServerDataSyncResponse</t>
+  </si>
+  <si>
+    <t>NotificationSessionBounded</t>
+  </si>
+  <si>
+    <t>NotificationOthersideRejected</t>
+  </si>
+  <si>
+    <t>NotificationOthersideAgreed</t>
+  </si>
+  <si>
+    <t>NotificationResponse</t>
+  </si>
+  <si>
+    <t>BusinessRequestEnterPool</t>
+  </si>
+  <si>
+    <t>BusinessRequestLeavePool</t>
+  </si>
+  <si>
+    <t>BusinessRequestAgreeChat</t>
+  </si>
+  <si>
+    <t>BusinessRequestRejectChat</t>
+  </si>
+  <si>
+    <t>BusinessRequestEndChat</t>
+  </si>
+  <si>
+    <t>BusinessRequestAssessContinue</t>
+  </si>
+  <si>
+    <t>BusinessRequestAssessQuit</t>
+  </si>
+  <si>
+    <t>BusinessResponse</t>
+  </si>
+  <si>
+    <t>BroadcastNotification</t>
+  </si>
+  <si>
+    <t>WebsocketTimeout</t>
+  </si>
+  <si>
+    <t>DeviceInIdleTimeout</t>
+  </si>
+  <si>
+    <t>SyncMessageTimeout</t>
+  </si>
+  <si>
+    <t>FlushToDB</t>
+  </si>
+  <si>
+    <t>UpdateWebRTCSession</t>
+  </si>
+  <si>
+    <t>sessionStartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -955,2478 +3453,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>endStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会话状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endReason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemOperationLogId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录日志的模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块编码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>util</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Session</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字符串</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemStatisticsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保存时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statisticsItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统计项</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统计项定义见统计项定义表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>statisticsItem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值定义</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在线设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机业务设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣业务设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>处于聊天状态设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机聊天设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣聊天设备数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>热门标签</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hotInterestLabelStatisticsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>印象标签</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Profile(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟身份表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GlobalInterestLabel(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全局兴趣标签表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GlobalImpressLabel(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全局印象标签表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>InterestCard(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣卡片表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ImpressCard(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>印象卡片表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>WebRtcSession(WebRtc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SystemStatistics(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统统计信息表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>HotInterestLabelStatistics(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统统计信息表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SessionRecord(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话记录表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isJailed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否越狱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要建索引的非自增长字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟身份</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话身份映射</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作码</t>
-  </si>
-  <si>
-    <t>操作码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProfileOperationLog(用户操作日志)</t>
-  </si>
-  <si>
-    <r>
-      <t>SystemOperationLog(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统操作日志</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SystemOperationLog(系统操作日志)</t>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到建立WebSocket连接的请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到AlohaRequest请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到设备信息同步请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到统计信息查询请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送业务会话通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话通知响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 进入业务设备池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 退出业务设备池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 匹配成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 同意聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 拒绝聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 结束聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 对象评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 拒绝聊天并退出业务设备池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收到业务会话请求 - 对象评价并退出业务设备池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备因为超时被关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统广播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动定时检查超时连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动定时保存数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动定时检查超时Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动定时保存统计数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库操作异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server内部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebSocket连接建立失败（主要是相关资源建立失败）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法JSON请求（字符串不符合JSON规范）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统在线容量达到上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入业务失败，容量达到上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备WebSocket连接超时被关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备响应超时导致连接被释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不当业务请求（请求和当前状态不符，比如还没有进入业务就确认匹配）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法业务请求，设备无权限（如被禁言）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合法请求，但由于未知异常导致失败（业务逻辑的失败由JSONRequest处理）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备信息同步由于未知原因失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计信息查询由于未知原因失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于未知原因退出业务设备池失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法业务请求，参数错误（业务逻辑的失败由JSONRequest处理并提供原因）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Timer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下发同步消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时时间内收到回应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线设备池超时连接检查定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DaoWrapper</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保存数据定时器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认匹配定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失效Token检测定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到回话绑定通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在指定时间内做出选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印象评价定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入印象评价界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在指定时间内完成操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送同步消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定时间内接收到响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备业务空闲定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App退出或者不在前台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App处于前台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Ping</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>消息定时器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方确认超时定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到双方的绑定确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时时间内收到聊天确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方评价超时定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务会话进入双方评价状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方完成印象评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Json</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>消息响应定时器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chatTotalDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DeviceCard(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备卡片表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>globalInterestLabelId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OperationCodeDefinition(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作码定义表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>WebSocket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连接</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AlohaRequest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AlohaResponse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionResponse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广播通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BroadcastNotification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更新兴趣卡片</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更新设备卡片</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebSocket连接超时，释放设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空闲状态超时，释放设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息响应超时，释放设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期性更新WebRTC Session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期性保存数据到数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotification - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话绑定</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotification - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对方拒绝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotification - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对方同意</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择业务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退出业务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话通知响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionNotificationResponse - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认收到</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同意聊天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝聊天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结束通话</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评价</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务会话请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> BusinessSessionRequest - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评价并退出</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OperationCode(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作码表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationCodeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SystemModule(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>matchCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profileId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ProfileOperationLog(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户操作日志</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Device(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceCardId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备卡片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未越狱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>越狱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未激活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>激活</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Valid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Invalid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无效</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Random</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,Interest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Reject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,ConnectionLoss</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连接故障</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,NormalEnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常结束</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>All</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,System</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,User</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>servlets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>websocket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sessionProfileMapId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要级联操作</t>
-  </si>
-  <si>
-    <t>需要级联操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unbanDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationCodeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statisticsItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ImpressLabelMap(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>印象标签集合表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>InterestLabelMap(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兴趣标签集合表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ChatConfirm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双方确认</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,VedioChat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视频通话</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>,Assess</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对象评价</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SessionProfileMap(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会话身份映射</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>moduleNo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值定义</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assessedCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>labelOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interestLabelName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>impressLabelName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>StatisticsItem(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统计项定义表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AppDataSyncResponse</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ServerDataSyncRequest</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据同步响应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ServerDataSyncResponse</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetupWebScoket</t>
-  </si>
-  <si>
-    <t>AlohaRequest</t>
-  </si>
-  <si>
-    <t>AlohaResponse</t>
-  </si>
-  <si>
-    <t>AppDataSyncRequest</t>
-  </si>
-  <si>
-    <t>AppDataSyncResponse</t>
-  </si>
-  <si>
-    <t>ServerDataSyncRequest</t>
-  </si>
-  <si>
-    <t>ServerDataSyncResponse</t>
-  </si>
-  <si>
-    <t>NotificationSessionBounded</t>
-  </si>
-  <si>
-    <t>NotificationOthersideRejected</t>
-  </si>
-  <si>
-    <t>NotificationOthersideAgreed</t>
-  </si>
-  <si>
-    <t>NotificationResponse</t>
-  </si>
-  <si>
-    <t>BusinessRequestEnterPool</t>
-  </si>
-  <si>
-    <t>BusinessRequestLeavePool</t>
-  </si>
-  <si>
-    <t>BusinessRequestAgreeChat</t>
-  </si>
-  <si>
-    <t>BusinessRequestRejectChat</t>
-  </si>
-  <si>
-    <t>BusinessRequestEndChat</t>
-  </si>
-  <si>
-    <t>BusinessRequestAssessContinue</t>
-  </si>
-  <si>
-    <t>BusinessRequestAssessQuit</t>
-  </si>
-  <si>
-    <t>BusinessResponse</t>
-  </si>
-  <si>
-    <t>BroadcastNotification</t>
-  </si>
-  <si>
-    <t>WebsocketTimeout</t>
-  </si>
-  <si>
-    <t>DeviceInIdleTimeout</t>
-  </si>
-  <si>
-    <t>SyncMessageTimeout</t>
-  </si>
-  <si>
-    <t>FlushToDB</t>
-  </si>
-  <si>
-    <t>UpdateWebRTCSession</t>
+    <t>chatStartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4071,10 +4099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I180"/>
+  <dimension ref="A2:I182"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -4100,12 +4128,12 @@
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
       <c r="D3" s="18"/>
       <c r="E3" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
       <c r="D5" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
@@ -4184,7 +4212,7 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="D11" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
@@ -4214,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>52</v>
@@ -4223,7 +4251,7 @@
         <v>53</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>55</v>
@@ -4234,7 +4262,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>52</v>
@@ -4246,7 +4274,7 @@
         <v>54</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
@@ -4344,19 +4372,19 @@
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="4:9" ht="17.25" customHeight="1">
@@ -4369,7 +4397,7 @@
     </row>
     <row r="23" spans="4:9" ht="17.25" customHeight="1">
       <c r="D23" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="4:9" ht="17.25" customHeight="1">
@@ -4406,7 +4434,7 @@
         <v>53</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>55</v>
@@ -4417,7 +4445,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>52</v>
@@ -4429,7 +4457,7 @@
         <v>54</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="4:9" ht="17.25" customHeight="1">
@@ -4440,7 +4468,7 @@
         <v>62</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>53</v>
@@ -4457,7 +4485,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>59</v>
@@ -4497,7 +4525,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>59</v>
@@ -4506,7 +4534,7 @@
         <v>53</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I30" s="5"/>
     </row>
@@ -4515,19 +4543,19 @@
         <v>7</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="4:9" ht="17.25" customHeight="1">
@@ -4540,7 +4568,7 @@
     </row>
     <row r="34" spans="4:9" ht="17.25" customHeight="1">
       <c r="D34" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="4:9" ht="17.25" customHeight="1">
@@ -4588,7 +4616,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>1</v>
@@ -4623,7 +4651,7 @@
     </row>
     <row r="41" spans="4:9" ht="17.25" customHeight="1">
       <c r="D41" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="4:9" ht="17.25" customHeight="1">
@@ -4671,7 +4699,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>1</v>
@@ -4714,7 +4742,7 @@
     </row>
     <row r="48" spans="4:9" ht="17.25" customHeight="1">
       <c r="D48" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="4:9" ht="17.25" customHeight="1">
@@ -4774,7 +4802,7 @@
         <v>69</v>
       </c>
       <c r="I51" s="44" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="4:9" ht="17.25" customHeight="1">
@@ -4787,7 +4815,7 @@
     </row>
     <row r="54" spans="4:9" ht="17.25" customHeight="1">
       <c r="D54" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="4:9" ht="17.25" customHeight="1">
@@ -4865,7 +4893,7 @@
         <v>85</v>
       </c>
       <c r="I58" s="44" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="4:9" ht="17.25" customHeight="1">
@@ -4873,7 +4901,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>52</v>
@@ -4893,7 +4921,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>52</v>
@@ -4916,7 +4944,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>53</v>
@@ -4925,7 +4953,7 @@
         <v>101</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="4:9" ht="17.25" customHeight="1">
@@ -4946,7 +4974,7 @@
     </row>
     <row r="64" spans="4:9" ht="17.25" customHeight="1">
       <c r="D64" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="4:9" ht="17.25" customHeight="1">
@@ -5006,7 +5034,7 @@
         <v>69</v>
       </c>
       <c r="I67" s="44" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="4:9" ht="17.25" customHeight="1">
@@ -5034,7 +5062,7 @@
         <v>4</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>52</v>
@@ -5079,7 +5107,7 @@
     </row>
     <row r="73" spans="4:9" ht="17.25" customHeight="1">
       <c r="D73" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="4:9" ht="17.25" customHeight="1">
@@ -5157,7 +5185,7 @@
         <v>16</v>
       </c>
       <c r="I77" s="44" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="4:9" ht="17.25" customHeight="1">
@@ -5165,7 +5193,7 @@
         <v>4</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>52</v>
@@ -5230,7 +5258,7 @@
     </row>
     <row r="83" spans="4:9" ht="17.25" customHeight="1">
       <c r="D83" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="4:9" ht="17.25" customHeight="1">
@@ -5281,7 +5309,7 @@
         <v>122</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>53</v>
@@ -5290,7 +5318,7 @@
         <v>123</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="4:9" ht="17.25" customHeight="1">
@@ -5298,7 +5326,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>124</v>
+        <v>361</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>59</v>
@@ -5306,8 +5334,8 @@
       <c r="G87" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H87" s="6" t="s">
-        <v>125</v>
+      <c r="H87" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="I87" s="5"/>
     </row>
@@ -5316,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>126</v>
+        <v>362</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>52</v>
@@ -5324,8 +5352,8 @@
       <c r="G88" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H88" s="6" t="s">
-        <v>127</v>
+      <c r="H88" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>107</v>
@@ -5336,118 +5364,118 @@
         <v>5</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>128</v>
+        <v>371</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>184</v>
+        <v>364</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>329</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="I89" s="5"/>
     </row>
     <row r="90" spans="4:9" ht="17.25" customHeight="1">
       <c r="D90" s="4">
         <v>6</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>184</v>
+        <v>365</v>
       </c>
       <c r="G90" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D91" s="4">
+        <v>7</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H90" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="91" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D91" s="11"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="12"/>
+      <c r="H91" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D92" s="4">
+        <v>8</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="93" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D93" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="94" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D94" s="7" t="s">
+      <c r="D93" s="11"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="12"/>
+    </row>
+    <row r="95" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D95" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D96" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E96" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F96" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="G96" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H94" s="9" t="s">
+      <c r="H96" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I94" s="8" t="s">
+      <c r="I96" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="95" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D95" s="4">
-        <v>1</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D96" s="4">
-        <v>2</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I96" s="5"/>
     </row>
     <row r="97" spans="4:9" ht="17.25" customHeight="1">
       <c r="D97" s="4">
-        <v>3</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>52</v>
@@ -5456,633 +5484,635 @@
         <v>53</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I97" s="5"/>
-    </row>
-    <row r="100" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D100" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="101" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D101" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D98" s="4">
+        <v>2</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D99" s="4">
+        <v>3</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="102" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D102" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D103" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E103" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F103" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="G103" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H101" s="9" t="s">
+      <c r="H103" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="I103" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="102" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D102" s="4">
-        <v>1</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D103" s="4">
-        <v>2</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I103" s="5"/>
     </row>
     <row r="104" spans="4:9" ht="17.25" customHeight="1">
       <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I104" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" spans="4:9" ht="17.25" customHeight="1">
       <c r="D105" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="I105" s="5"/>
     </row>
     <row r="106" spans="4:9" ht="17.25" customHeight="1">
       <c r="D106" s="4">
+        <v>3</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D107" s="4">
+        <v>4</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D108" s="4">
         <v>5</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E108" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F108" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="G108" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H106" s="6" t="s">
+      <c r="H108" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I106" s="5" t="s">
+      <c r="I108" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D109" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="110" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D110" s="7" t="s">
+    <row r="111" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D111" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D112" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E112" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F112" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G110" s="7" t="s">
+      <c r="G112" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H110" s="9" t="s">
+      <c r="H112" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I110" s="8" t="s">
+      <c r="I112" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D111" s="4">
-        <v>1</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D112" s="4">
-        <v>2</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="113" spans="4:9" ht="17.25" customHeight="1">
       <c r="D113" s="4">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I113" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="114" spans="4:9" ht="17.25" customHeight="1">
       <c r="D114" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H114" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="I114" s="5"/>
+        <v>259</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="115" spans="4:9" ht="17.25" customHeight="1">
       <c r="D115" s="4">
+        <v>3</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D116" s="4">
+        <v>4</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H116" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D117" s="4">
         <v>5</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="F115" s="5" t="s">
+      <c r="E117" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="G117" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H115" s="6" t="s">
+      <c r="H117" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I115" s="5" t="s">
+      <c r="I117" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D118" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="119" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D119" s="7" t="s">
+    <row r="120" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D120" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D121" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E121" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F121" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="G121" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="H121" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I119" s="8" t="s">
+      <c r="I121" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="120" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D120" s="4">
-        <v>1</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D121" s="4">
-        <v>2</v>
-      </c>
-      <c r="E121" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H121" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="I121" s="5"/>
     </row>
     <row r="122" spans="4:9" ht="17.25" customHeight="1">
       <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F122" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="G122" s="4" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>315</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="4:9" ht="17.25" customHeight="1">
       <c r="D123" s="4">
-        <v>4</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H123" s="6" t="s">
+      <c r="H123" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D124" s="4">
+        <v>3</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="125" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D125" s="4">
+        <v>4</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H125" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I123" s="5"/>
-    </row>
-    <row r="126" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D126" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="127" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D127" s="7" t="s">
+      <c r="I125" s="5"/>
+    </row>
+    <row r="128" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D128" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9" ht="17.25" customHeight="1">
+      <c r="D129" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E129" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F129" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G127" s="7" t="s">
+      <c r="G129" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H127" s="9" t="s">
+      <c r="H129" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I127" s="8" t="s">
+      <c r="I129" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="128" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D128" s="4">
-        <v>1</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D129" s="4">
-        <v>2</v>
-      </c>
-      <c r="E129" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I129" s="5"/>
     </row>
     <row r="130" spans="3:9" ht="17.25" customHeight="1">
       <c r="D130" s="4">
+        <v>1</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F130" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F130" s="5" t="s">
+      <c r="G130" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9" ht="17.25" customHeight="1">
+      <c r="D131" s="4">
+        <v>2</v>
+      </c>
+      <c r="E131" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="3:9" ht="17.25" customHeight="1">
+      <c r="D132" s="4">
+        <v>3</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G130" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I130" s="5"/>
-    </row>
-    <row r="131" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D131" s="11"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="12"/>
-    </row>
-    <row r="132" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D132" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G132" s="3"/>
+      <c r="G132" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I132" s="5"/>
     </row>
     <row r="133" spans="3:9" ht="17.25" customHeight="1">
-      <c r="C133" s="2">
-        <v>1</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F133" s="3"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="12"/>
     </row>
     <row r="134" spans="3:9" ht="17.25" customHeight="1">
-      <c r="C134" s="2">
-        <v>2</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G134" s="3"/>
     </row>
     <row r="135" spans="3:9" ht="17.25" customHeight="1">
       <c r="C135" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="F135" s="3"/>
     </row>
     <row r="136" spans="3:9" ht="17.25" customHeight="1">
       <c r="C136" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>317</v>
+        <v>138</v>
       </c>
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="3:9" ht="17.25" customHeight="1">
       <c r="C137" s="2">
-        <v>5</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>318</v>
+        <v>3</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="3:9" ht="17.25" customHeight="1">
       <c r="C138" s="2">
-        <v>6</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>140</v>
+        <v>4</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="3:9" ht="17.25" customHeight="1">
       <c r="C139" s="2">
+        <v>5</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="3:9" ht="17.25" customHeight="1">
+      <c r="C140" s="2">
+        <v>6</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="3:9" ht="17.25" customHeight="1">
+      <c r="C141" s="2">
         <v>7</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="141" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D141" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="142" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D142" s="7" t="s">
+      <c r="D141" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9" ht="17.25" customHeight="1">
+      <c r="D143" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9" ht="17.25" customHeight="1">
+      <c r="D144" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="E144" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="F144" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G142" s="7" t="s">
+      <c r="G144" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H142" s="9" t="s">
+      <c r="H144" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I142" s="8" t="s">
+      <c r="I144" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="143" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D143" s="4">
-        <v>1</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I143" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D144" s="4">
-        <v>2</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H144" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I144" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="145" spans="4:9" ht="17.25" customHeight="1">
       <c r="D145" s="4">
+        <v>1</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I145" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="146" spans="4:9" ht="17.25" customHeight="1">
       <c r="D146" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I146" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="147" spans="4:9" ht="17.25" customHeight="1">
       <c r="D147" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="I147" s="5"/>
     </row>
     <row r="148" spans="4:9" ht="17.25" customHeight="1">
       <c r="D148" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>1</v>
@@ -6091,373 +6121,409 @@
         <v>33</v>
       </c>
       <c r="H148" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D149" s="4">
+        <v>5</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I149" s="5"/>
+    </row>
+    <row r="150" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D150" s="4">
+        <v>6</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I148" s="5"/>
-    </row>
-    <row r="151" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D151" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D152" s="7" t="s">
+      <c r="I150" s="5"/>
+    </row>
+    <row r="153" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D153" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="154" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D154" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="E154" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F152" s="8" t="s">
+      <c r="F154" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G152" s="7" t="s">
+      <c r="G154" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H152" s="9" t="s">
+      <c r="H154" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I152" s="8" t="s">
+      <c r="I154" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="153" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D153" s="4">
-        <v>1</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H153" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I153" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D154" s="4">
-        <v>2</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H154" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I154" s="5"/>
     </row>
     <row r="155" spans="4:9" ht="17.25" customHeight="1">
       <c r="D155" s="4">
+        <v>1</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F155" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E155" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="G155" s="4" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="4:9" ht="17.25" customHeight="1">
       <c r="D156" s="4">
+        <v>2</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D157" s="4">
+        <v>3</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="158" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D158" s="4">
         <v>4</v>
       </c>
-      <c r="E156" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F156" s="5" t="s">
+      <c r="E158" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H158" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G156" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H156" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I156" s="5"/>
-    </row>
-    <row r="159" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D159" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="160" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D160" s="7" t="s">
+      <c r="I158" s="5"/>
+    </row>
+    <row r="161" spans="3:9" ht="17.25" customHeight="1">
+      <c r="D161" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9" ht="17.25" customHeight="1">
+      <c r="D162" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E160" s="8" t="s">
+      <c r="E162" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="F162" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G160" s="7" t="s">
+      <c r="G162" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H160" s="9" t="s">
+      <c r="H162" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I160" s="8" t="s">
+      <c r="I162" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="161" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D161" s="4">
-        <v>1</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H161" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I161" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D162" s="4">
-        <v>2</v>
-      </c>
-      <c r="E162" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H162" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I162" s="5"/>
     </row>
     <row r="163" spans="3:9" ht="17.25" customHeight="1">
       <c r="D163" s="4">
+        <v>1</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I163" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9" ht="17.25" customHeight="1">
+      <c r="D164" s="4">
+        <v>2</v>
+      </c>
+      <c r="E164" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I164" s="5"/>
+    </row>
+    <row r="165" spans="3:9" ht="17.25" customHeight="1">
+      <c r="D165" s="4">
         <v>3</v>
       </c>
-      <c r="E163" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F163" s="5" t="s">
+      <c r="E165" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F165" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G163" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I163" s="5"/>
-    </row>
-    <row r="165" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D165" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G165" s="3"/>
-    </row>
-    <row r="166" spans="3:9" ht="17.25" customHeight="1">
-      <c r="C166" s="2">
-        <v>1</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="G165" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I165" s="5"/>
     </row>
     <row r="167" spans="3:9" ht="17.25" customHeight="1">
-      <c r="C167" s="2">
-        <v>2</v>
-      </c>
-      <c r="D167" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="D167" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G167" s="3"/>
     </row>
     <row r="168" spans="3:9" ht="17.25" customHeight="1">
       <c r="C168" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="169" spans="3:9" ht="17.25" customHeight="1">
       <c r="C169" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="170" spans="3:9" ht="17.25" customHeight="1">
       <c r="C170" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="171" spans="3:9" ht="17.25" customHeight="1">
       <c r="C171" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="172" spans="3:9" ht="17.25" customHeight="1">
       <c r="C172" s="2">
+        <v>5</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="173" spans="3:9" ht="17.25" customHeight="1">
+      <c r="C173" s="2">
+        <v>6</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="174" spans="3:9" ht="17.25" customHeight="1">
+      <c r="C174" s="2">
         <v>7</v>
       </c>
-      <c r="D172" s="12" t="s">
+      <c r="D174" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="175" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D175" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D176" s="7" t="s">
+      <c r="E174" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="177" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D177" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="178" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D178" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E176" s="8" t="s">
+      <c r="E178" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F176" s="8" t="s">
+      <c r="F178" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G176" s="7" t="s">
+      <c r="G178" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H176" s="9" t="s">
+      <c r="H178" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I176" s="8" t="s">
+      <c r="I178" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="177" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D177" s="4">
-        <v>1</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H177" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I177" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D178" s="4">
-        <v>2</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H178" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I178" s="5"/>
     </row>
     <row r="179" spans="4:9" ht="17.25" customHeight="1">
       <c r="D179" s="4">
+        <v>1</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F179" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E179" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="G179" s="4" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I179" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I179" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="180" spans="4:9" ht="17.25" customHeight="1">
       <c r="D180" s="4">
+        <v>2</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H180" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D181" s="4">
+        <v>3</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D182" s="4">
         <v>4</v>
       </c>
-      <c r="E180" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F180" s="5" t="s">
+      <c r="E182" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H182" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G180" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H180" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I180" s="5"/>
+      <c r="I182" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6509,7 +6575,7 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -6517,7 +6583,7 @@
         <v>97</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -6525,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -6533,7 +6599,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -6541,7 +6607,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -6549,7 +6615,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -6557,7 +6623,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -6565,7 +6631,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="3:4">
@@ -6573,7 +6639,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="3:4">
@@ -6581,7 +6647,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="3:4">
@@ -6589,7 +6655,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -6597,7 +6663,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -6605,7 +6671,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -6613,7 +6679,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -6621,7 +6687,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -6629,7 +6695,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -6637,7 +6703,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -6645,7 +6711,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="3:4">
@@ -6662,7 +6728,7 @@
     </row>
     <row r="27" spans="3:4">
       <c r="C27" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="3:4">
@@ -6670,7 +6736,7 @@
         <v>97</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -6678,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -6686,7 +6752,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="3:4">
@@ -6694,7 +6760,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="3:4">
@@ -6702,7 +6768,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -6710,7 +6776,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="3:4">
@@ -6718,7 +6784,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="3:4">
@@ -6726,7 +6792,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -6734,7 +6800,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -6787,7 +6853,7 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -6795,7 +6861,7 @@
         <v>97</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -6803,7 +6869,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -6811,7 +6877,7 @@
         <v>1001</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -6819,7 +6885,7 @@
         <v>1002</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -6827,7 +6893,7 @@
         <v>1003</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -6835,7 +6901,7 @@
         <v>1004</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -6873,7 +6939,7 @@
         <v>1100</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -6881,7 +6947,7 @@
         <v>1101</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -6889,7 +6955,7 @@
         <v>1102</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -6897,7 +6963,7 @@
         <v>1103</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -6905,7 +6971,7 @@
         <v>1104</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -6943,7 +7009,7 @@
         <v>1200</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="3:4">
@@ -6951,7 +7017,7 @@
         <v>1201</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -6959,7 +7025,7 @@
         <v>1202</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -6967,7 +7033,7 @@
         <v>1203</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="3:4">
@@ -6996,7 +7062,7 @@
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -7004,7 +7070,7 @@
         <v>97</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="3:4">
@@ -7107,25 +7173,25 @@
   <sheetData>
     <row r="3" spans="1:7">
       <c r="C3" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27">
       <c r="A4" s="34"/>
       <c r="C4" s="28" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7133,16 +7199,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E5" s="29">
         <v>9</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7150,16 +7216,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E6" s="29">
         <v>30</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7167,16 +7233,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E7" s="29">
         <v>15</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7184,16 +7250,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E8" s="29">
         <v>60</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7201,16 +7267,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E9" s="29">
         <v>3600</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7218,16 +7284,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E10" s="29">
         <v>30</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7235,16 +7301,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E11" s="29">
         <v>180</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7262,25 +7328,25 @@
     </row>
     <row r="15" spans="1:7">
       <c r="C15" s="32" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27">
       <c r="A16" s="34"/>
       <c r="C16" s="28" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -7288,16 +7354,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E17" s="29">
         <v>9</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -7305,16 +7371,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E18" s="29">
         <v>60</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -7322,16 +7388,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E19" s="29">
         <v>9</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="3:7">
@@ -7339,16 +7405,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E20" s="29">
         <v>180</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -7356,16 +7422,16 @@
         <v>5</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E21" s="29">
         <v>5</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="3:7">
@@ -7397,7 +7463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -7413,22 +7479,22 @@
   <sheetData>
     <row r="3" spans="1:7">
       <c r="C3" s="38" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27">
       <c r="A4" s="34"/>
       <c r="C4" s="26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7436,13 +7502,13 @@
         <v>1001</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7450,13 +7516,13 @@
         <v>1002</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7464,13 +7530,13 @@
         <v>1003</v>
       </c>
       <c r="D7" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>274</v>
-      </c>
       <c r="F7" s="32" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7478,13 +7544,13 @@
         <v>1004</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7492,10 +7558,10 @@
         <v>1005</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7503,10 +7569,10 @@
         <v>1006</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7514,13 +7580,13 @@
         <v>1007</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7528,13 +7594,13 @@
         <v>1008</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7542,13 +7608,13 @@
         <v>1009</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7556,13 +7622,13 @@
         <v>1010</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7570,13 +7636,13 @@
         <v>1011</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7584,13 +7650,13 @@
         <v>1012</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -7598,13 +7664,13 @@
         <v>1013</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -7612,13 +7678,13 @@
         <v>1014</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -7626,13 +7692,13 @@
         <v>1015</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="3:6">
@@ -7640,13 +7706,13 @@
         <v>1016</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="3:6">
@@ -7654,13 +7720,13 @@
         <v>1017</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="3:6">
@@ -7668,13 +7734,13 @@
         <v>1018</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="3:6">
@@ -7682,13 +7748,13 @@
         <v>1019</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="3:6">
@@ -7696,13 +7762,13 @@
         <v>1020</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="3:6">
@@ -7710,13 +7776,13 @@
         <v>1021</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="3:6">
@@ -7724,13 +7790,13 @@
         <v>1022</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="3:6">
@@ -7743,13 +7809,13 @@
         <v>1100</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="3:6">
@@ -7757,13 +7823,13 @@
         <v>1101</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="3:6">
@@ -7771,13 +7837,13 @@
         <v>1102</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="3:6">
@@ -7785,13 +7851,13 @@
         <v>1103</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="3:6">
@@ -7799,13 +7865,13 @@
         <v>1104</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="3:5">

--- a/Documents/数据表设计.xlsx
+++ b/Documents/数据表设计.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="373">
   <si>
     <t>序号</t>
   </si>
@@ -3454,6 +3454,10 @@
   </si>
   <si>
     <t>chatStartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(512)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4101,8 +4105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -6077,7 +6081,7 @@
         <v>29</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>1</v>
+        <v>372</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>4</v>
@@ -6115,7 +6119,7 @@
         <v>32</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>1</v>
+        <v>372</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>33</v>
@@ -6151,7 +6155,7 @@
         <v>37</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>33</v>

--- a/Documents/数据表设计.xlsx
+++ b/Documents/数据表设计.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="393">
   <si>
     <t>序号</t>
   </si>
@@ -3458,6 +3458,237 @@
   </si>
   <si>
     <t>VARCHAR(512)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(512)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的用户名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的密码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>OpenTok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用的账号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录账号的注册时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WebRTCAccount(OpenTok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webRTCAccountId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountSecret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用来申请该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的账号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webRTCAccountId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3627,7 +3858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3764,6 +3995,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4103,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I182"/>
+  <dimension ref="A2:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -6165,95 +6399,103 @@
       </c>
       <c r="I150" s="5"/>
     </row>
-    <row r="153" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D153" s="3" t="s">
+    <row r="151" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D151" s="4">
+        <v>7</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="152" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D152" s="11"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="12"/>
+    </row>
+    <row r="154" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D154" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D154" s="7" t="s">
+    <row r="155" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D155" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E155" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F154" s="8" t="s">
+      <c r="F155" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G154" s="7" t="s">
+      <c r="G155" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H154" s="9" t="s">
+      <c r="H155" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I154" s="8" t="s">
+      <c r="I155" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="155" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D155" s="4">
-        <v>1</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H155" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I155" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="156" spans="4:9" ht="17.25" customHeight="1">
       <c r="D156" s="4">
+        <v>1</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I156" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E156" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H156" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I156" s="5"/>
     </row>
     <row r="157" spans="4:9" ht="17.25" customHeight="1">
       <c r="D157" s="4">
-        <v>3</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>322</v>
+        <v>2</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>142</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I157" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I157" s="5"/>
     </row>
     <row r="158" spans="4:9" ht="17.25" customHeight="1">
       <c r="D158" s="4">
-        <v>4</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>145</v>
@@ -6262,61 +6504,61 @@
         <v>142</v>
       </c>
       <c r="H158" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D159" s="4">
+        <v>4</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H159" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I158" s="5"/>
-    </row>
-    <row r="161" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D161" s="3" t="s">
+      <c r="I159" s="5"/>
+    </row>
+    <row r="162" spans="3:9" ht="17.25" customHeight="1">
+      <c r="D162" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="162" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D162" s="7" t="s">
+    <row r="163" spans="3:9" ht="17.25" customHeight="1">
+      <c r="D163" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E163" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F162" s="8" t="s">
+      <c r="F163" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G162" s="7" t="s">
+      <c r="G163" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H162" s="9" t="s">
+      <c r="H163" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I162" s="8" t="s">
+      <c r="I163" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="163" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D163" s="4">
-        <v>1</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I163" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="164" spans="3:9" ht="17.25" customHeight="1">
       <c r="D164" s="4">
-        <v>2</v>
-      </c>
-      <c r="E164" s="17" t="s">
-        <v>144</v>
+        <v>1</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>145</v>
@@ -6325,209 +6567,354 @@
         <v>142</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I164" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="165" spans="3:9" ht="17.25" customHeight="1">
       <c r="D165" s="4">
-        <v>3</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="E165" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>142</v>
       </c>
       <c r="H165" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I165" s="5"/>
+    </row>
+    <row r="166" spans="3:9" ht="17.25" customHeight="1">
+      <c r="D166" s="4">
+        <v>3</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H166" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="I165" s="5"/>
-    </row>
-    <row r="167" spans="3:9" ht="17.25" customHeight="1">
-      <c r="D167" s="3" t="s">
+      <c r="I166" s="5"/>
+    </row>
+    <row r="168" spans="3:9" ht="17.25" customHeight="1">
+      <c r="D168" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G167" s="3"/>
-    </row>
-    <row r="168" spans="3:9" ht="17.25" customHeight="1">
-      <c r="C168" s="2">
-        <v>1</v>
-      </c>
-      <c r="D168" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G168" s="3"/>
     </row>
     <row r="169" spans="3:9" ht="17.25" customHeight="1">
       <c r="C169" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="170" spans="3:9" ht="17.25" customHeight="1">
       <c r="C170" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="171" spans="3:9" ht="17.25" customHeight="1">
       <c r="C171" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="172" spans="3:9" ht="17.25" customHeight="1">
       <c r="C172" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="173" spans="3:9" ht="17.25" customHeight="1">
       <c r="C173" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="174" spans="3:9" ht="17.25" customHeight="1">
       <c r="C174" s="2">
+        <v>6</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="175" spans="3:9" ht="17.25" customHeight="1">
+      <c r="C175" s="2">
         <v>7</v>
       </c>
-      <c r="D174" s="12" t="s">
+      <c r="D175" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E175" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="177" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D177" s="3" t="s">
+    <row r="178" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D178" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="178" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D178" s="7" t="s">
+    <row r="179" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D179" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E178" s="8" t="s">
+      <c r="E179" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F178" s="8" t="s">
+      <c r="F179" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G178" s="7" t="s">
+      <c r="G179" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H178" s="9" t="s">
+      <c r="H179" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I178" s="8" t="s">
+      <c r="I179" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="179" spans="4:9" ht="17.25" customHeight="1">
-      <c r="D179" s="4">
-        <v>1</v>
-      </c>
-      <c r="E179" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H179" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I179" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="180" spans="4:9" ht="17.25" customHeight="1">
       <c r="D180" s="4">
+        <v>1</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H180" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I180" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E180" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H180" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I180" s="5"/>
     </row>
     <row r="181" spans="4:9" ht="17.25" customHeight="1">
       <c r="D181" s="4">
-        <v>3</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>260</v>
+        <v>2</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="I181" s="5"/>
     </row>
     <row r="182" spans="4:9" ht="17.25" customHeight="1">
       <c r="D182" s="4">
+        <v>3</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D183" s="4">
         <v>4</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E183" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F182" s="5" t="s">
+      <c r="F183" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G182" s="4" t="s">
+      <c r="G183" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H182" s="6" t="s">
+      <c r="H183" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I182" s="5"/>
+      <c r="I183" s="5"/>
+    </row>
+    <row r="186" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D186" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="187" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D187" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H187" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I187" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D188" s="4">
+        <v>1</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D189" s="4">
+        <v>2</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H189" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="I189" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="190" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D190" s="4">
+        <v>3</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="191" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D191" s="4">
+        <v>4</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H191" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="I191" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="4:9" ht="17.25" customHeight="1">
+      <c r="D192" s="4">
+        <v>5</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H192" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="I192" s="46" t="s">
+        <v>385</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
